--- a/api_tests/data/tasks.xlsx
+++ b/api_tests/data/tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="21000" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="76">
   <si>
     <t>anchor_level</t>
   </si>
@@ -79,13 +79,22 @@
     <t>7天内累计开播时长（单位：分钟）</t>
   </si>
   <si>
+    <t>go_live_duration</t>
+  </si>
+  <si>
     <t>weekly</t>
   </si>
   <si>
     <t>7天内累计有效开播天（单位：天）</t>
   </si>
   <si>
+    <t>go_live_valid_day</t>
+  </si>
+  <si>
     <t>7天内累计获得点赞数（单位：个）</t>
+  </si>
+  <si>
+    <t>live_like_count</t>
   </si>
   <si>
     <t>7天内累计获得评论数（单位：条）</t>
@@ -94,16 +103,31 @@
     <t>7天内累计被看播时长（单位：分钟）</t>
   </si>
   <si>
+    <t>total_watch_duration</t>
+  </si>
+  <si>
     <t>单场直播ACU</t>
+  </si>
+  <si>
+    <t>live_room_acu</t>
   </si>
   <si>
     <t>7天内累计涨粉数（单位：人）</t>
   </si>
   <si>
+    <t>increase_fans_count</t>
+  </si>
+  <si>
     <t>7天内累计发布短视频（单位：条）</t>
   </si>
   <si>
+    <t>increase_video_item_publish_count</t>
+  </si>
+  <si>
     <t>7天内使用连麦时长（单位：分钟）</t>
+  </si>
+  <si>
+    <t>link_micro_duration</t>
   </si>
   <si>
     <t>单日开播时长</t>
@@ -121,10 +145,16 @@
     <t>单日直播评论数</t>
   </si>
   <si>
+    <t>live_comment_count</t>
+  </si>
+  <si>
     <t>单日涨粉数</t>
   </si>
   <si>
     <t>7天内累计获得钻石数（单位：钻）</t>
+  </si>
+  <si>
+    <t>gain_diamond_count</t>
   </si>
   <si>
     <t>单日获得钻石数</t>
@@ -133,13 +163,22 @@
     <t>7天内累计新增订阅数（单位：次）</t>
   </si>
   <si>
+    <t>increase_subscription_count</t>
+  </si>
+  <si>
     <t>单日新增订阅数</t>
   </si>
   <si>
     <t>7天内进行co-host时长（单位：分钟）</t>
   </si>
   <si>
+    <t>co_host_duration</t>
+  </si>
+  <si>
     <t>7天内累计PK胜利次数（单位：次）</t>
+  </si>
+  <si>
+    <t>pk_victory</t>
   </si>
   <si>
     <t>主播阶段</t>
@@ -1788,7 +1827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1838,21 +1877,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,7 +2004,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1992,34 +2016,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2104,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,6 +2162,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,9 +2175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,9 +2196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2487,20 +2508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="18.5840707964602" customWidth="1"/>
-    <col min="13" max="13" width="17.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="70.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="17.7037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" spans="1:14">
+    <row r="1" ht="16.35" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2544,14 +2566,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.05" spans="1:14">
+    <row r="2" ht="29.55" spans="1:14">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="10">
         <v>10</v>
       </c>
@@ -2570,72 +2594,76 @@
       <c r="I2" s="10">
         <v>130</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="14">
         <v>220</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>320</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="14">
         <v>600</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="14">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="43.95" spans="1:14">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>3</v>
+      </c>
+      <c r="L3" s="14">
+        <v>4</v>
+      </c>
+      <c r="M3" s="14">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
-        <v>3</v>
-      </c>
-      <c r="L3" s="13">
-        <v>4</v>
-      </c>
-      <c r="M3" s="13">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="15.05" spans="1:14">
+    </row>
+    <row r="4" ht="29.55" spans="1:14">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="10">
         <v>5</v>
       </c>
@@ -2667,17 +2695,19 @@
         <v>48000</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="29.55" spans="1:14">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
@@ -2696,30 +2726,32 @@
       <c r="I5" s="18">
         <v>15</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="14">
         <v>65</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <v>259</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="14">
         <v>550</v>
       </c>
       <c r="M5" s="21">
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="15.05" spans="1:14">
-      <c r="A6" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="43.95" spans="1:14">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
@@ -2738,7 +2770,7 @@
       <c r="I6" s="10">
         <v>120</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="14">
         <v>400</v>
       </c>
       <c r="K6" s="21">
@@ -2751,17 +2783,19 @@
         <v>7000</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="29.55" spans="1:14">
       <c r="A7" s="9">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
@@ -2780,30 +2814,32 @@
       <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="13">
-        <v>2</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="J7" s="14">
+        <v>2</v>
+      </c>
+      <c r="K7" s="14">
         <v>4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="14">
         <v>7</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="14">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="43.95" spans="1:14">
       <c r="A8" s="9">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -2831,105 +2867,111 @@
       <c r="L8" s="16">
         <v>100</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="14">
         <v>770</v>
       </c>
       <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="72.75" spans="1:14">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3</v>
+      </c>
+      <c r="L9" s="14">
+        <v>6</v>
+      </c>
+      <c r="M9" s="14">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="43.95" spans="1:14">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>5</v>
+      </c>
+      <c r="L10" s="14">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:14">
+      <c r="A11" s="14">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="15.05" spans="1:14">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>3</v>
-      </c>
-      <c r="L9" s="13">
-        <v>6</v>
-      </c>
-      <c r="M9" s="13">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="15.05" spans="1:14">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <v>2</v>
-      </c>
-      <c r="I10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2</v>
-      </c>
-      <c r="K10" s="13">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13">
-        <v>20</v>
-      </c>
-      <c r="M10" s="13">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="15.05" hidden="1" spans="1:14">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15"/>
       <c r="D11" s="16">
         <v>5</v>
       </c>
@@ -2939,46 +2981,48 @@
       <c r="F11" s="16">
         <v>30</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>40</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>60</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <v>85</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <v>150</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>220</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="14">
         <v>300</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="14">
         <v>300</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="15.05" hidden="1" spans="1:14">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:14">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="14">
         <v>6</v>
       </c>
       <c r="G12" s="16">
@@ -2987,49 +3031,51 @@
       <c r="H12" s="16">
         <v>25</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>60</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="14">
         <v>180</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <v>430</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="14">
         <v>700</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="14">
         <v>2550</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="15.05" hidden="1" spans="1:14">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="29.55" spans="1:14">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
         <v>3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>10</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>60</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <v>320</v>
       </c>
       <c r="J13" s="21">
@@ -3045,101 +3091,107 @@
         <v>30000</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="15.05" hidden="1" spans="1:14">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13">
-        <v>5</v>
-      </c>
-      <c r="H14" s="13">
-        <v>5</v>
-      </c>
-      <c r="I14" s="13">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="43.95" spans="1:14">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="14">
         <v>30</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="14">
         <v>100</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="14">
         <v>200</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="14">
         <v>630</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="15.05" hidden="1" spans="1:14">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="43.95" spans="1:14">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
         <v>3</v>
       </c>
-      <c r="J15" s="13">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="14">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14">
         <v>10</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="14">
         <v>20</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="14">
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" ht="15.05" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="29.55" spans="1:14">
       <c r="A16" s="9">
         <v>2</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="10">
         <v>20</v>
       </c>
@@ -3161,69 +3213,73 @@
       <c r="J16" s="19">
         <v>400</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="14">
         <v>560</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="14">
         <v>1000</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="14">
         <v>1400</v>
       </c>
       <c r="N16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="43.95" spans="1:14">
       <c r="A17" s="9">
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="14">
+        <v>4</v>
+      </c>
+      <c r="L17" s="14">
+        <v>6</v>
+      </c>
+      <c r="M17" s="14">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>2</v>
-      </c>
-      <c r="J17" s="19">
-        <v>2</v>
-      </c>
-      <c r="K17" s="13">
-        <v>4</v>
-      </c>
-      <c r="L17" s="13">
-        <v>6</v>
-      </c>
-      <c r="M17" s="13">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="15.05" spans="1:14">
+    </row>
+    <row r="18" ht="29.55" spans="1:14">
       <c r="A18" s="9">
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="10">
         <v>5</v>
       </c>
@@ -3255,17 +3311,19 @@
         <v>136000</v>
       </c>
       <c r="N18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="29.55" spans="1:14">
       <c r="A19" s="9">
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="10">
         <v>1</v>
       </c>
@@ -3287,7 +3345,7 @@
       <c r="J19" s="19">
         <v>380</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="14">
         <v>1100</v>
       </c>
       <c r="L19" s="21">
@@ -3297,17 +3355,19 @@
         <v>6300</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="15.05" spans="1:14">
-      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="43.95" spans="1:14">
+      <c r="A20" s="12">
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="10">
         <v>10</v>
       </c>
@@ -3339,17 +3399,19 @@
         <v>19000</v>
       </c>
       <c r="N20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="29.55" spans="1:14">
       <c r="A21" s="9">
         <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="19">
         <v>1</v>
       </c>
@@ -3371,27 +3433,29 @@
       <c r="J21" s="19">
         <v>4</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="14">
         <v>8</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="14">
         <v>14</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="14">
         <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="43.95" spans="1:14">
       <c r="A22" s="9">
         <v>2</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
@@ -3416,24 +3480,26 @@
       <c r="K22" s="16">
         <v>80</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="14">
         <v>200</v>
       </c>
       <c r="M22" s="21">
         <v>1080</v>
       </c>
       <c r="N22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="72.75" spans="1:14">
       <c r="A23" s="9">
         <v>2</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
@@ -3455,27 +3521,29 @@
       <c r="J23" s="19">
         <v>2</v>
       </c>
-      <c r="K23" s="13">
-        <v>5</v>
-      </c>
-      <c r="L23" s="13">
+      <c r="K23" s="14">
+        <v>5</v>
+      </c>
+      <c r="L23" s="14">
         <v>7</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="14">
         <v>10</v>
       </c>
       <c r="N23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="43.95" spans="1:14">
       <c r="A24" s="9">
         <v>2</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D24" s="10">
         <v>1</v>
       </c>
@@ -3497,88 +3565,92 @@
       <c r="J24" s="19">
         <v>50</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>250</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="14">
         <v>600</v>
       </c>
       <c r="M24" s="21">
         <v>3300</v>
       </c>
       <c r="N24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="43.95" spans="1:14">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2</v>
+      </c>
+      <c r="K25" s="14">
+        <v>5</v>
+      </c>
+      <c r="L25" s="14">
+        <v>20</v>
+      </c>
+      <c r="M25" s="14">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="29.55" spans="1:14">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" ht="15.05" spans="1:14">
-      <c r="A25" s="12">
-        <v>2</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="13">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13">
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
-        <v>2</v>
-      </c>
-      <c r="H25" s="13">
-        <v>2</v>
-      </c>
-      <c r="I25" s="10">
-        <v>2</v>
-      </c>
-      <c r="J25" s="19">
-        <v>2</v>
-      </c>
-      <c r="K25" s="13">
-        <v>5</v>
-      </c>
-      <c r="L25" s="13">
-        <v>20</v>
-      </c>
-      <c r="M25" s="13">
-        <v>30</v>
-      </c>
-      <c r="N25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" ht="15.05" hidden="1" spans="1:14">
-      <c r="A26" s="13">
-        <v>2</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="14">
+        <v>5</v>
+      </c>
+      <c r="E26" s="14">
         <v>12</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="14">
         <v>25</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="14">
         <v>55</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="14">
         <v>95</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="14">
         <v>170</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="14">
         <v>460</v>
       </c>
       <c r="K26" s="21">
@@ -3591,114 +3663,120 @@
         <v>5900</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="15.05" hidden="1" spans="1:14">
-      <c r="A27" s="13">
-        <v>2</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="29.55" spans="1:14">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="14">
         <v>15</v>
       </c>
       <c r="E27" s="16">
         <v>30</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="14">
         <v>45</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="14">
         <v>65</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="14">
         <v>85</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="14">
         <v>115</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="14">
         <v>180</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="14">
         <v>280</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="14">
         <v>300</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="14">
         <v>300</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" ht="15.05" hidden="1" spans="1:14">
-      <c r="A28" s="13">
-        <v>2</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>2</v>
-      </c>
-      <c r="I28" s="13">
-        <v>5</v>
-      </c>
-      <c r="J28" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" ht="43.95" spans="1:14">
+      <c r="A28" s="14">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+      <c r="I28" s="14">
+        <v>5</v>
+      </c>
+      <c r="J28" s="14">
         <v>10</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="14">
         <v>20</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="14">
         <v>40</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="14">
         <v>135</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="15.05" hidden="1" spans="1:14">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13">
-        <v>2</v>
-      </c>
-      <c r="E29" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="29.55" spans="1:14">
+      <c r="A29" s="14">
+        <v>2</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14">
         <v>10</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="14">
         <v>50</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="14">
         <v>250</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="14">
         <v>550</v>
       </c>
       <c r="I29" s="21">
@@ -3717,59 +3795,63 @@
         <v>70000</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" ht="15.05" hidden="1" spans="1:14">
-      <c r="A30" s="13">
-        <v>2</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13">
-        <v>2</v>
-      </c>
-      <c r="F30" s="13">
-        <v>5</v>
-      </c>
-      <c r="G30" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" ht="43.95" spans="1:14">
+      <c r="A30" s="14">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2</v>
+      </c>
+      <c r="F30" s="14">
+        <v>5</v>
+      </c>
+      <c r="G30" s="14">
         <v>10</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <v>20</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="14">
         <v>40</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="14">
         <v>140</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="14">
         <v>380</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="14">
         <v>650</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="14">
         <v>1600</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" ht="15.05" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="29.55" spans="1:14">
       <c r="A31" s="9">
         <v>3</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D31" s="10">
         <v>40</v>
       </c>
@@ -3785,33 +3867,35 @@
       <c r="H31" s="10">
         <v>320</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="14">
         <v>450</v>
       </c>
       <c r="J31" s="19">
         <v>650</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="14">
         <v>920</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="14">
         <v>1500</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="14">
         <v>2000</v>
       </c>
       <c r="N31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="43.95" spans="1:14">
       <c r="A32" s="9">
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
@@ -3827,33 +3911,35 @@
       <c r="H32" s="19">
         <v>2</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <v>3</v>
       </c>
       <c r="J32" s="19">
         <v>3</v>
       </c>
-      <c r="K32" s="13">
-        <v>5</v>
-      </c>
-      <c r="L32" s="13">
+      <c r="K32" s="14">
+        <v>5</v>
+      </c>
+      <c r="L32" s="14">
         <v>6</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="14">
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="29.55" spans="1:14">
       <c r="A33" s="9">
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D33" s="19">
         <v>260</v>
       </c>
@@ -3885,17 +3971,19 @@
         <v>300000</v>
       </c>
       <c r="N33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="29.55" spans="1:14">
       <c r="A34" s="9">
         <v>3</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D34" s="19">
         <v>8</v>
       </c>
@@ -3911,7 +3999,7 @@
       <c r="H34" s="19">
         <v>240</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="14">
         <v>430</v>
       </c>
       <c r="J34" s="20">
@@ -3927,17 +4015,19 @@
         <v>14000</v>
       </c>
       <c r="N34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" ht="15.05" spans="1:14">
-      <c r="A35" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="43.95" spans="1:14">
+      <c r="A35" s="12">
         <v>3</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D35" s="10">
         <v>45</v>
       </c>
@@ -3969,17 +4059,19 @@
         <v>64000</v>
       </c>
       <c r="N35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="29.55" spans="1:14">
       <c r="A36" s="9">
         <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D36" s="19">
         <v>1</v>
       </c>
@@ -3995,33 +4087,35 @@
       <c r="H36" s="10">
         <v>4</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="14">
         <v>6</v>
       </c>
       <c r="J36" s="19">
         <v>8</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="14">
         <v>20</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="14">
         <v>35</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="14">
         <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="43.95" spans="1:14">
       <c r="A37" s="9">
         <v>3</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D37" s="10">
         <v>2</v>
       </c>
@@ -4043,27 +4137,29 @@
       <c r="J37" s="16">
         <v>55</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="14">
         <v>200</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="14">
         <v>455</v>
       </c>
       <c r="M37" s="21">
         <v>2680</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="72.75" spans="1:14">
       <c r="A38" s="9">
         <v>3</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D38" s="10">
         <v>1</v>
       </c>
@@ -4079,40 +4175,42 @@
       <c r="H38" s="10">
         <v>1</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="14">
         <v>1</v>
       </c>
       <c r="J38" s="19">
         <v>3</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="14">
         <v>8</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="14">
         <v>10</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="14">
         <v>10</v>
       </c>
       <c r="N38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="43.95" spans="1:14">
       <c r="A39" s="9">
         <v>3</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D39" s="10">
         <v>1</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="14">
         <v>5</v>
       </c>
       <c r="G39" s="18">
@@ -4121,7 +4219,7 @@
       <c r="H39" s="18">
         <v>50</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="14">
         <v>110</v>
       </c>
       <c r="J39" s="19">
@@ -4137,24 +4235,26 @@
         <v>12000</v>
       </c>
       <c r="N39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" ht="15.05" spans="1:14">
-      <c r="A40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="43.95" spans="1:14">
+      <c r="A40" s="13">
         <v>3</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="13">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="14">
         <v>2</v>
       </c>
       <c r="E40" s="10">
         <v>2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="14">
         <v>2</v>
       </c>
       <c r="G40" s="10">
@@ -4163,49 +4263,51 @@
       <c r="H40" s="19">
         <v>2</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="14">
         <v>5</v>
       </c>
       <c r="J40" s="19">
         <v>15</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="14">
         <v>30</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="14">
         <v>60</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="14">
         <v>100</v>
       </c>
       <c r="N40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="29.55" spans="1:14">
+      <c r="A41" s="14">
+        <v>3</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" ht="15.05" hidden="1" spans="1:14">
-      <c r="A41" s="13">
-        <v>3</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13">
+      <c r="D41" s="14">
         <v>20</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="14">
         <v>50</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="14">
         <v>90</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="14">
         <v>160</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="14">
         <v>280</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="14">
         <v>450</v>
       </c>
       <c r="J41" s="21">
@@ -4221,150 +4323,158 @@
         <v>15000</v>
       </c>
       <c r="N41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" ht="15.05" hidden="1" spans="1:14">
-      <c r="A42" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" ht="43.95" spans="1:14">
+      <c r="A42" s="14">
         <v>3</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="B42" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14">
         <v>3</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="14">
         <v>3</v>
       </c>
-      <c r="H42" s="13">
-        <v>5</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="14">
+        <v>5</v>
+      </c>
+      <c r="I42" s="14">
         <v>10</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="14">
         <v>80</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="14">
         <v>300</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="14">
         <v>700</v>
       </c>
       <c r="M42" s="21">
         <v>2800</v>
       </c>
       <c r="N42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" ht="29.55" spans="1:14">
+      <c r="A43" s="14">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" ht="15.05" hidden="1" spans="1:14">
-      <c r="A43" s="13">
+      <c r="E43" s="14">
+        <v>45</v>
+      </c>
+      <c r="F43" s="14">
+        <v>65</v>
+      </c>
+      <c r="G43" s="14">
+        <v>90</v>
+      </c>
+      <c r="H43" s="14">
+        <v>120</v>
+      </c>
+      <c r="I43" s="14">
+        <v>150</v>
+      </c>
+      <c r="J43" s="14">
+        <v>230</v>
+      </c>
+      <c r="K43" s="14">
+        <v>300</v>
+      </c>
+      <c r="L43" s="14">
+        <v>300</v>
+      </c>
+      <c r="M43" s="14">
+        <v>300</v>
+      </c>
+      <c r="N43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" ht="43.95" spans="1:14">
+      <c r="A44" s="14">
         <v>3</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13">
-        <v>25</v>
-      </c>
-      <c r="E43" s="13">
-        <v>45</v>
-      </c>
-      <c r="F43" s="13">
-        <v>65</v>
-      </c>
-      <c r="G43" s="13">
-        <v>90</v>
-      </c>
-      <c r="H43" s="13">
-        <v>120</v>
-      </c>
-      <c r="I43" s="13">
-        <v>150</v>
-      </c>
-      <c r="J43" s="13">
-        <v>230</v>
-      </c>
-      <c r="K43" s="13">
-        <v>300</v>
-      </c>
-      <c r="L43" s="13">
-        <v>300</v>
-      </c>
-      <c r="M43" s="13">
-        <v>300</v>
-      </c>
-      <c r="N43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" ht="15.05" hidden="1" spans="1:14">
-      <c r="A44" s="13">
+      <c r="B44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14">
+        <v>2</v>
+      </c>
+      <c r="H44" s="14">
         <v>3</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13">
-        <v>2</v>
-      </c>
-      <c r="H44" s="13">
+      <c r="I44" s="14">
+        <v>6</v>
+      </c>
+      <c r="J44" s="14">
+        <v>15</v>
+      </c>
+      <c r="K44" s="14">
+        <v>40</v>
+      </c>
+      <c r="L44" s="14">
+        <v>85</v>
+      </c>
+      <c r="M44" s="14">
+        <v>250</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" ht="29.55" spans="1:14">
+      <c r="A45" s="14">
         <v>3</v>
       </c>
-      <c r="I44" s="13">
-        <v>6</v>
-      </c>
-      <c r="J44" s="13">
-        <v>15</v>
-      </c>
-      <c r="K44" s="13">
-        <v>40</v>
-      </c>
-      <c r="L44" s="13">
-        <v>85</v>
-      </c>
-      <c r="M44" s="13">
-        <v>250</v>
-      </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" ht="15.05" hidden="1" spans="1:14">
-      <c r="A45" s="13">
-        <v>3</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13">
+      <c r="B45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14">
         <v>70</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="14">
         <v>280</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="14">
         <v>600</v>
       </c>
       <c r="G45" s="21">
@@ -4389,66 +4499,70 @@
         <v>145000</v>
       </c>
       <c r="N45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" ht="15.05" hidden="1" spans="1:14">
-      <c r="A46" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" ht="43.95" spans="1:14">
+      <c r="A46" s="14">
         <v>3</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13">
-        <v>2</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="B46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="14">
+        <v>2</v>
+      </c>
+      <c r="E46" s="14">
         <v>10</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="14">
         <v>20</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="14">
         <v>40</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="14">
         <v>70</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="14">
         <v>140</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="14">
         <v>400</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="14">
         <v>900</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="14">
         <v>1400</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="14">
         <v>3200</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" ht="15.05" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" ht="29.55" spans="1:14">
       <c r="A47" s="9">
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D47" s="19">
         <v>70</v>
       </c>
       <c r="E47" s="19">
         <v>130</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="14">
         <v>200</v>
       </c>
       <c r="G47" s="19">
@@ -4457,40 +4571,42 @@
       <c r="H47" s="19">
         <v>500</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="14">
         <v>700</v>
       </c>
       <c r="J47" s="19">
         <v>900</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="14">
         <v>1200</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="14">
         <v>1900</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="14">
         <v>2100</v>
       </c>
       <c r="N47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="43.95" spans="1:14">
       <c r="A48" s="9">
         <v>4</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D48" s="10">
         <v>1</v>
       </c>
       <c r="E48" s="10">
         <v>1</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="14">
         <v>1</v>
       </c>
       <c r="G48" s="10">
@@ -4499,33 +4615,35 @@
       <c r="H48" s="19">
         <v>3</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="14">
         <v>4</v>
       </c>
       <c r="J48" s="19">
         <v>4</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="14">
         <v>6</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="14">
         <v>6</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="14">
         <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="29.55" spans="1:14">
       <c r="A49" s="9">
         <v>4</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D49" s="21">
         <v>1600</v>
       </c>
@@ -4557,30 +4675,32 @@
         <v>800000</v>
       </c>
       <c r="N49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="29.55" spans="1:14">
       <c r="A50" s="9">
         <v>4</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D50" s="16">
         <v>55</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="14">
         <v>150</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="14">
         <v>240</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="14">
         <v>480</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="14">
         <v>680</v>
       </c>
       <c r="I50" s="21">
@@ -4599,24 +4719,26 @@
         <v>27000</v>
       </c>
       <c r="N50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" ht="15.05" spans="1:14">
-      <c r="A51" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="43.95" spans="1:14">
+      <c r="A51" s="12">
         <v>4</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="13">
+        <v>22</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="14">
         <v>200</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="14">
         <v>450</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="14">
         <v>750</v>
       </c>
       <c r="G51" s="21">
@@ -4641,75 +4763,79 @@
         <v>165000</v>
       </c>
       <c r="N51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="29.55" spans="1:14">
       <c r="A52" s="9">
         <v>4</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="13">
-        <v>2</v>
-      </c>
-      <c r="E52" s="13">
-        <v>2</v>
-      </c>
-      <c r="F52" s="13">
+        <v>24</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2</v>
+      </c>
+      <c r="F52" s="14">
         <v>3</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="14">
         <v>4</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="14">
         <v>7</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="14">
         <v>10</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="14">
         <v>15</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="14">
         <v>37</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="14">
         <v>72</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="14">
         <v>260</v>
       </c>
       <c r="N52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="43.95" spans="1:14">
       <c r="A53" s="9">
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="13">
-        <v>2</v>
-      </c>
-      <c r="E53" s="13">
+        <v>26</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14">
         <v>3</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="14">
         <v>3</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="14">
         <v>3</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="14">
         <v>15</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="14">
         <v>30</v>
       </c>
       <c r="J53" s="16">
@@ -4718,79 +4844,83 @@
       <c r="K53" s="16">
         <v>430</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="14">
         <v>945</v>
       </c>
       <c r="M53" s="21">
         <v>5000</v>
       </c>
       <c r="N53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="72.75" spans="1:14">
       <c r="A54" s="9">
         <v>4</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>2</v>
-      </c>
-      <c r="H54" s="13">
-        <v>2</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2</v>
-      </c>
-      <c r="J54" s="13">
-        <v>5</v>
-      </c>
-      <c r="K54" s="13">
+        <v>28</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <v>2</v>
+      </c>
+      <c r="H54" s="14">
+        <v>2</v>
+      </c>
+      <c r="I54" s="14">
+        <v>2</v>
+      </c>
+      <c r="J54" s="14">
+        <v>5</v>
+      </c>
+      <c r="K54" s="14">
         <v>10</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="14">
         <v>10</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="14">
         <v>10</v>
       </c>
       <c r="N54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="43.95" spans="1:14">
       <c r="A55" s="9">
         <v>4</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="13">
+        <v>39</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="14">
         <v>5</v>
       </c>
       <c r="E55" s="16">
         <v>35</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="14">
         <v>120</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="14">
         <v>270</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="14">
         <v>650</v>
       </c>
       <c r="I55" s="21">
@@ -4809,117 +4939,123 @@
         <v>59000</v>
       </c>
       <c r="N55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="58.35" spans="1:14">
+      <c r="A56" s="13">
+        <v>4</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1</v>
+      </c>
+      <c r="J56" s="14">
+        <v>2</v>
+      </c>
+      <c r="K56" s="14">
+        <v>2</v>
+      </c>
+      <c r="L56" s="14">
+        <v>3</v>
+      </c>
+      <c r="M56" s="14">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="43.95" spans="1:14">
+      <c r="A57" s="13">
+        <v>4</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2</v>
+      </c>
+      <c r="F57" s="14">
+        <v>2</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+      <c r="H57" s="19">
+        <v>2</v>
+      </c>
+      <c r="I57" s="14">
+        <v>5</v>
+      </c>
+      <c r="J57" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" ht="15.05" spans="1:14">
-      <c r="A56" s="12">
+      <c r="K57" s="14">
+        <v>30</v>
+      </c>
+      <c r="L57" s="14">
+        <v>60</v>
+      </c>
+      <c r="M57" s="14">
+        <v>100</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="29.55" spans="1:14">
+      <c r="A58" s="14">
         <v>4</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="13">
-        <v>1</v>
-      </c>
-      <c r="I56" s="13">
-        <v>1</v>
-      </c>
-      <c r="J56" s="13">
-        <v>2</v>
-      </c>
-      <c r="K56" s="13">
-        <v>2</v>
-      </c>
-      <c r="L56" s="13">
-        <v>3</v>
-      </c>
-      <c r="M56" s="13">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="B58" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" ht="15.05" spans="1:14">
-      <c r="A57" s="12">
-        <v>4</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="13">
-        <v>2</v>
-      </c>
-      <c r="E57" s="10">
-        <v>2</v>
-      </c>
-      <c r="F57" s="13">
-        <v>2</v>
-      </c>
-      <c r="G57" s="10">
-        <v>2</v>
-      </c>
-      <c r="H57" s="19">
-        <v>2</v>
-      </c>
-      <c r="I57" s="13">
-        <v>5</v>
-      </c>
-      <c r="J57" s="13">
-        <v>15</v>
-      </c>
-      <c r="K57" s="13">
-        <v>30</v>
-      </c>
-      <c r="L57" s="13">
-        <v>60</v>
-      </c>
-      <c r="M57" s="13">
-        <v>100</v>
-      </c>
-      <c r="N57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" ht="15.05" hidden="1" spans="1:14">
-      <c r="A58" s="13">
-        <v>4</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13">
+      <c r="D58" s="14">
         <v>70</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="14">
         <v>150</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="14">
         <v>250</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="14">
         <v>380</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="14">
         <v>520</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="14">
         <v>920</v>
       </c>
       <c r="J58" s="21">
@@ -4935,36 +5071,38 @@
         <v>33000</v>
       </c>
       <c r="N58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" ht="15.05" hidden="1" spans="1:14">
-      <c r="A59" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" ht="43.95" spans="1:14">
+      <c r="A59" s="14">
         <v>4</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13">
-        <v>5</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="B59" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>5</v>
+      </c>
+      <c r="F59" s="14">
         <v>20</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="14">
         <v>35</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="14">
         <v>85</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="14">
         <v>150</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="14">
         <v>650</v>
       </c>
       <c r="K59" s="21">
@@ -4977,147 +5115,155 @@
         <v>15000</v>
       </c>
       <c r="N59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" ht="29.55" spans="1:14">
+      <c r="A60" s="14">
+        <v>4</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="14">
+        <v>35</v>
+      </c>
+      <c r="E60" s="14">
+        <v>60</v>
+      </c>
+      <c r="F60" s="14">
+        <v>80</v>
+      </c>
+      <c r="G60" s="14">
+        <v>100</v>
+      </c>
+      <c r="H60" s="14">
+        <v>130</v>
+      </c>
+      <c r="I60" s="14">
+        <v>170</v>
+      </c>
+      <c r="J60" s="14">
+        <v>270</v>
+      </c>
+      <c r="K60" s="14">
+        <v>300</v>
+      </c>
+      <c r="L60" s="14">
+        <v>300</v>
+      </c>
+      <c r="M60" s="14">
+        <v>300</v>
+      </c>
+      <c r="N60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" ht="58.35" spans="1:14">
+      <c r="A61" s="14">
+        <v>4</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="14">
+        <v>1</v>
+      </c>
+      <c r="I61" s="14">
+        <v>1</v>
+      </c>
+      <c r="J61" s="14">
+        <v>1</v>
+      </c>
+      <c r="K61" s="14">
+        <v>2</v>
+      </c>
+      <c r="L61" s="14">
+        <v>2</v>
+      </c>
+      <c r="M61" s="14">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" ht="43.95" spans="1:14">
+      <c r="A62" s="14">
+        <v>4</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1</v>
+      </c>
+      <c r="F62" s="14">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
+        <v>2</v>
+      </c>
+      <c r="H62" s="14">
+        <v>6</v>
+      </c>
+      <c r="I62" s="14">
+        <v>12</v>
+      </c>
+      <c r="J62" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" ht="15.05" hidden="1" spans="1:14">
-      <c r="A60" s="13">
+      <c r="K62" s="14">
+        <v>80</v>
+      </c>
+      <c r="L62" s="14">
+        <v>170</v>
+      </c>
+      <c r="M62" s="14">
+        <v>460</v>
+      </c>
+      <c r="N62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" ht="29.55" spans="1:14">
+      <c r="A63" s="14">
         <v>4</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13">
+      <c r="B63" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="13">
-        <v>60</v>
-      </c>
-      <c r="F60" s="13">
-        <v>80</v>
-      </c>
-      <c r="G60" s="13">
-        <v>100</v>
-      </c>
-      <c r="H60" s="13">
-        <v>130</v>
-      </c>
-      <c r="I60" s="13">
-        <v>170</v>
-      </c>
-      <c r="J60" s="13">
-        <v>270</v>
-      </c>
-      <c r="K60" s="13">
-        <v>300</v>
-      </c>
-      <c r="L60" s="13">
-        <v>300</v>
-      </c>
-      <c r="M60" s="13">
-        <v>300</v>
-      </c>
-      <c r="N60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" ht="15.05" hidden="1" spans="1:14">
-      <c r="A61" s="13">
-        <v>4</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13">
-        <v>1</v>
-      </c>
-      <c r="H61" s="13">
-        <v>1</v>
-      </c>
-      <c r="I61" s="13">
-        <v>1</v>
-      </c>
-      <c r="J61" s="13">
-        <v>1</v>
-      </c>
-      <c r="K61" s="13">
-        <v>2</v>
-      </c>
-      <c r="L61" s="13">
-        <v>2</v>
-      </c>
-      <c r="M61" s="13">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" ht="15.05" hidden="1" spans="1:14">
-      <c r="A62" s="13">
-        <v>4</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13">
-        <v>1</v>
-      </c>
-      <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13">
-        <v>2</v>
-      </c>
-      <c r="H62" s="13">
-        <v>6</v>
-      </c>
-      <c r="I62" s="13">
-        <v>12</v>
-      </c>
-      <c r="J62" s="13">
-        <v>25</v>
-      </c>
-      <c r="K62" s="13">
-        <v>80</v>
-      </c>
-      <c r="L62" s="13">
-        <v>170</v>
-      </c>
-      <c r="M62" s="13">
-        <v>460</v>
-      </c>
-      <c r="N62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" ht="15.05" hidden="1" spans="1:14">
-      <c r="A63" s="13">
-        <v>4</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13">
+      <c r="C63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="14">
         <v>400</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="14">
         <v>1000</v>
       </c>
       <c r="F63" s="21">
@@ -5145,143 +5291,151 @@
         <v>299000</v>
       </c>
       <c r="N63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" ht="15.05" hidden="1" spans="1:14">
-      <c r="A64" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" ht="43.95" spans="1:14">
+      <c r="A64" s="14">
         <v>4</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="13">
+      <c r="B64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="14">
         <v>15</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="14">
         <v>40</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="14">
         <v>80</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="14">
         <v>120</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="14">
         <v>180</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="14">
         <v>340</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="14">
         <v>800</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="14">
         <v>1600</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="14">
         <v>2400</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="14">
         <v>5800</v>
       </c>
       <c r="N64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" ht="15.05" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" ht="29.55" spans="1:14">
       <c r="A65" s="9">
         <v>5</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13">
+      <c r="C65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="14">
         <v>140</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="14">
         <v>260</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="14">
         <v>420</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="14">
         <v>600</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="14">
         <v>1200</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="14">
         <v>1200</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="14">
         <v>1500</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="14">
         <v>1800</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="14">
         <v>2100</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="14">
         <v>2100</v>
       </c>
       <c r="N65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="43.95" spans="1:14">
       <c r="A66" s="9">
         <v>5</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D66" s="10">
         <v>1</v>
       </c>
       <c r="E66" s="10">
         <v>2</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="14">
         <v>3</v>
       </c>
       <c r="G66" s="10">
         <v>4</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="14">
         <v>4</v>
       </c>
-      <c r="I66" s="13">
-        <v>5</v>
-      </c>
-      <c r="J66" s="13">
-        <v>5</v>
-      </c>
-      <c r="K66" s="13">
+      <c r="I66" s="14">
+        <v>5</v>
+      </c>
+      <c r="J66" s="14">
+        <v>5</v>
+      </c>
+      <c r="K66" s="14">
         <v>6</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="14">
         <v>6</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="14">
         <v>6</v>
       </c>
       <c r="N66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" ht="15.05" spans="1:14">
-      <c r="A67" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="43.95" spans="1:14">
+      <c r="A67" s="12">
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D67" s="21">
         <v>1000</v>
       </c>
@@ -5313,59 +5467,63 @@
         <v>510000</v>
       </c>
       <c r="N67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="72.75" spans="1:14">
       <c r="A68" s="9">
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13">
-        <v>1</v>
-      </c>
-      <c r="F68" s="13">
-        <v>2</v>
-      </c>
-      <c r="G68" s="13">
-        <v>2</v>
-      </c>
-      <c r="H68" s="13">
-        <v>2</v>
-      </c>
-      <c r="I68" s="13">
+        <v>28</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1</v>
+      </c>
+      <c r="F68" s="14">
+        <v>2</v>
+      </c>
+      <c r="G68" s="14">
+        <v>2</v>
+      </c>
+      <c r="H68" s="14">
+        <v>2</v>
+      </c>
+      <c r="I68" s="14">
         <v>3</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="14">
         <v>7</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="14">
         <v>10</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="14">
         <v>10</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="14">
         <v>10</v>
       </c>
       <c r="N68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="29.55" spans="1:14">
       <c r="A69" s="9">
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D69" s="21">
         <v>9800</v>
       </c>
@@ -5397,18 +5555,20 @@
         <v>2500000</v>
       </c>
       <c r="N69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="29.55" spans="1:14">
       <c r="A70" s="9">
         <v>5</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="13">
+        <v>21</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="14">
         <v>360</v>
       </c>
       <c r="E70" s="16">
@@ -5439,69 +5599,73 @@
         <v>71000</v>
       </c>
       <c r="N70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="29.55" spans="1:14">
       <c r="A71" s="9">
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="14">
+        <v>4</v>
+      </c>
+      <c r="E71" s="14">
+        <v>5</v>
+      </c>
+      <c r="F71" s="14">
+        <v>5</v>
+      </c>
+      <c r="G71" s="14">
+        <v>8</v>
+      </c>
+      <c r="H71" s="14">
+        <v>14</v>
+      </c>
+      <c r="I71" s="14">
         <v>20</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="13">
-        <v>4</v>
-      </c>
-      <c r="E71" s="13">
-        <v>5</v>
-      </c>
-      <c r="F71" s="13">
-        <v>5</v>
-      </c>
-      <c r="G71" s="13">
-        <v>8</v>
-      </c>
-      <c r="H71" s="13">
-        <v>14</v>
-      </c>
-      <c r="I71" s="13">
-        <v>20</v>
-      </c>
-      <c r="J71" s="13">
+      <c r="J71" s="14">
         <v>33</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K71" s="14">
         <v>82</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="14">
         <v>154</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="14">
         <v>500</v>
       </c>
       <c r="N71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="43.95" spans="1:14">
       <c r="A72" s="9">
         <v>5</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="13">
-        <v>5</v>
-      </c>
-      <c r="E72" s="13">
-        <v>5</v>
-      </c>
-      <c r="F72" s="13">
-        <v>5</v>
-      </c>
-      <c r="G72" s="13">
+        <v>26</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="14">
+        <v>5</v>
+      </c>
+      <c r="E72" s="14">
+        <v>5</v>
+      </c>
+      <c r="F72" s="14">
+        <v>5</v>
+      </c>
+      <c r="G72" s="14">
         <v>15</v>
       </c>
       <c r="H72" s="16">
@@ -5510,10 +5674,10 @@
       <c r="I72" s="16">
         <v>90</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="14">
         <v>370</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="14">
         <v>1180</v>
       </c>
       <c r="L72" s="21">
@@ -5523,59 +5687,63 @@
         <v>6000</v>
       </c>
       <c r="N72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" ht="15.05" spans="1:14">
-      <c r="A73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="58.35" spans="1:14">
+      <c r="A73" s="13">
         <v>5</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="13">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13">
-        <v>2</v>
-      </c>
-      <c r="I73" s="13">
-        <v>2</v>
-      </c>
-      <c r="J73" s="13">
+        <v>42</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="14">
+        <v>1</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14">
+        <v>2</v>
+      </c>
+      <c r="I73" s="14">
+        <v>2</v>
+      </c>
+      <c r="J73" s="14">
         <v>3</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="14">
         <v>6</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="14">
         <v>10</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="14">
         <v>20</v>
       </c>
       <c r="N73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="43.95" spans="1:14">
       <c r="A74" s="9">
         <v>5</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D74" s="16">
         <v>340</v>
       </c>
@@ -5607,17 +5775,19 @@
         <v>367000</v>
       </c>
       <c r="N74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" ht="15.05" spans="1:14">
-      <c r="A75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="29.55" spans="1:14">
+      <c r="A75" s="13">
         <v>5</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="D75" s="16">
         <v>5</v>
       </c>
@@ -5642,115 +5812,121 @@
       <c r="K75" s="16">
         <v>15</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="14">
         <v>20</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="14">
         <v>20</v>
       </c>
       <c r="N75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" ht="15.05" spans="1:14">
-      <c r="A76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="29.55" spans="1:14">
+      <c r="A76" s="13">
         <v>5</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="13">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13">
-        <v>1</v>
-      </c>
-      <c r="F76" s="13">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13">
-        <v>1</v>
-      </c>
-      <c r="H76" s="13">
-        <v>1</v>
-      </c>
-      <c r="I76" s="13">
-        <v>1</v>
-      </c>
-      <c r="J76" s="13">
-        <v>1</v>
-      </c>
-      <c r="K76" s="13">
-        <v>1</v>
-      </c>
-      <c r="L76" s="13">
-        <v>2</v>
-      </c>
-      <c r="M76" s="13">
+        <v>47</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+      <c r="E76" s="14">
+        <v>1</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14">
+        <v>1</v>
+      </c>
+      <c r="H76" s="14">
+        <v>1</v>
+      </c>
+      <c r="I76" s="14">
+        <v>1</v>
+      </c>
+      <c r="J76" s="14">
+        <v>1</v>
+      </c>
+      <c r="K76" s="14">
+        <v>1</v>
+      </c>
+      <c r="L76" s="14">
+        <v>2</v>
+      </c>
+      <c r="M76" s="14">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" ht="15.05" spans="1:14">
-      <c r="A77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="43.95" spans="1:14">
+      <c r="A77" s="13">
         <v>5</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="13">
+        <v>30</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="14">
         <v>2</v>
       </c>
       <c r="E77" s="10">
         <v>2</v>
       </c>
-      <c r="F77" s="13">
-        <v>2</v>
-      </c>
-      <c r="G77" s="13">
+      <c r="F77" s="14">
+        <v>2</v>
+      </c>
+      <c r="G77" s="14">
         <v>5</v>
       </c>
       <c r="H77" s="19">
         <v>15</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="14">
         <v>30</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="14">
         <v>60</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K77" s="14">
         <v>100</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="14">
         <v>150</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="14">
         <v>200</v>
       </c>
       <c r="N77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="29.55" spans="1:14">
+      <c r="A78" s="14">
+        <v>5</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" ht="15.05" hidden="1" spans="1:14">
-      <c r="A78" s="13">
-        <v>5</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="13">
+      <c r="D78" s="14">
         <v>300</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="14">
         <v>520</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="14">
         <v>780</v>
       </c>
       <c r="G78" s="21">
@@ -5775,27 +5951,29 @@
         <v>100000</v>
       </c>
       <c r="N78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" ht="15.05" hidden="1" spans="1:14">
-      <c r="A79" s="13">
-        <v>5</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" ht="43.95" spans="1:14">
+      <c r="A79" s="14">
+        <v>5</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="14">
         <v>20</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="14">
         <v>80</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="14">
         <v>440</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="14">
         <v>640</v>
       </c>
       <c r="H79" s="21">
@@ -5817,147 +5995,155 @@
         <v>82000</v>
       </c>
       <c r="N79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" ht="15.05" hidden="1" spans="1:14">
-      <c r="A80" s="13">
-        <v>5</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" ht="29.55" spans="1:14">
+      <c r="A80" s="14">
+        <v>5</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="14">
         <v>55</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="14">
         <v>80</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="14">
         <v>100</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="14">
         <v>140</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="14">
         <v>180</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="14">
         <v>230</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="14">
         <v>300</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K80" s="14">
         <v>300</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L80" s="14">
         <v>300</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="14">
         <v>300</v>
       </c>
       <c r="N80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" ht="15.05" hidden="1" spans="1:14">
-      <c r="A81" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" ht="58.35" spans="1:14">
+      <c r="A81" s="14">
         <v>5</v>
       </c>
       <c r="B81" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1</v>
+      </c>
+      <c r="F81" s="14">
+        <v>1</v>
+      </c>
+      <c r="G81" s="14">
+        <v>1</v>
+      </c>
+      <c r="H81" s="14">
+        <v>2</v>
+      </c>
+      <c r="I81" s="14">
+        <v>3</v>
+      </c>
+      <c r="J81" s="14">
+        <v>5</v>
+      </c>
+      <c r="K81" s="14">
+        <v>8</v>
+      </c>
+      <c r="L81" s="14">
+        <v>12</v>
+      </c>
+      <c r="M81" s="14">
+        <v>16</v>
+      </c>
+      <c r="N81" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="13">
-        <v>1</v>
-      </c>
-      <c r="E81" s="13">
-        <v>1</v>
-      </c>
-      <c r="F81" s="13">
-        <v>1</v>
-      </c>
-      <c r="G81" s="13">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13">
-        <v>2</v>
-      </c>
-      <c r="I81" s="13">
-        <v>3</v>
-      </c>
-      <c r="J81" s="13">
-        <v>5</v>
-      </c>
-      <c r="K81" s="13">
-        <v>8</v>
-      </c>
-      <c r="L81" s="13">
-        <v>12</v>
-      </c>
-      <c r="M81" s="13">
-        <v>16</v>
-      </c>
-      <c r="N81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" ht="15.05" hidden="1" spans="1:14">
-      <c r="A82" s="13">
-        <v>5</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="13">
-        <v>1</v>
-      </c>
-      <c r="E82" s="13">
-        <v>1</v>
-      </c>
-      <c r="F82" s="13">
-        <v>2</v>
-      </c>
-      <c r="G82" s="13">
-        <v>5</v>
-      </c>
-      <c r="H82" s="13">
+    </row>
+    <row r="82" ht="43.95" spans="1:14">
+      <c r="A82" s="14">
+        <v>5</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="14">
+        <v>1</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1</v>
+      </c>
+      <c r="F82" s="14">
+        <v>2</v>
+      </c>
+      <c r="G82" s="14">
+        <v>5</v>
+      </c>
+      <c r="H82" s="14">
         <v>15</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="14">
         <v>35</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="14">
         <v>60</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="14">
         <v>200</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="14">
         <v>400</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="14">
         <v>900</v>
       </c>
       <c r="N82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" ht="15.05" hidden="1" spans="1:14">
-      <c r="A83" s="13">
-        <v>5</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" ht="29.55" spans="1:14">
+      <c r="A83" s="14">
+        <v>5</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="14">
         <v>2200</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="14">
         <v>4200</v>
       </c>
       <c r="F83" s="21">
@@ -5985,143 +6171,151 @@
         <v>714000</v>
       </c>
       <c r="N83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="15.05" hidden="1" spans="1:14">
-      <c r="A84" s="13">
-        <v>5</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" ht="43.95" spans="1:14">
+      <c r="A84" s="14">
+        <v>5</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="14">
         <v>80</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="14">
         <v>170</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="14">
         <v>240</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="14">
         <v>420</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="14">
         <v>620</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="14">
         <v>900</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="14">
         <v>1800</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="14">
         <v>3200</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="14">
         <v>4800</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="14">
         <v>13500</v>
       </c>
       <c r="N84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" ht="15.05" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" ht="29.55" spans="1:14">
       <c r="A85" s="9">
         <v>6</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="13">
+      <c r="C85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="14">
         <v>350</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="14">
         <v>550</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="14">
         <v>750</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="14">
         <v>1000</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="14">
         <v>1600</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="14">
         <v>1600</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="14">
         <v>2100</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="14">
         <v>2100</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="14">
         <v>2100</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="14">
         <v>2100</v>
       </c>
       <c r="N85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="43.95" spans="1:14">
       <c r="A86" s="9">
         <v>6</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D86" s="10">
         <v>1</v>
       </c>
       <c r="E86" s="10">
         <v>3</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="14">
         <v>4</v>
       </c>
       <c r="G86" s="10">
         <v>5</v>
       </c>
-      <c r="H86" s="13">
-        <v>5</v>
-      </c>
-      <c r="I86" s="13">
+      <c r="H86" s="14">
+        <v>5</v>
+      </c>
+      <c r="I86" s="14">
         <v>6</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="14">
         <v>6</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="14">
         <v>6</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="14">
         <v>6</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="14">
         <v>6</v>
       </c>
       <c r="N86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" ht="15.05" spans="1:14">
-      <c r="A87" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="43.95" spans="1:14">
+      <c r="A87" s="12">
         <v>6</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D87" s="21">
         <v>11000</v>
       </c>
@@ -6153,59 +6347,63 @@
         <v>1800000</v>
       </c>
       <c r="N87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="72.75" spans="1:14">
       <c r="A88" s="9">
         <v>6</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="13">
-        <v>1</v>
-      </c>
-      <c r="E88" s="13">
-        <v>1</v>
-      </c>
-      <c r="F88" s="13">
-        <v>2</v>
-      </c>
-      <c r="G88" s="13">
-        <v>2</v>
-      </c>
-      <c r="H88" s="13">
-        <v>2</v>
-      </c>
-      <c r="I88" s="13">
+        <v>28</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
+      <c r="E88" s="14">
+        <v>1</v>
+      </c>
+      <c r="F88" s="14">
+        <v>2</v>
+      </c>
+      <c r="G88" s="14">
+        <v>2</v>
+      </c>
+      <c r="H88" s="14">
+        <v>2</v>
+      </c>
+      <c r="I88" s="14">
         <v>3</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="14">
         <v>7</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="14">
         <v>10</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="14">
         <v>10</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="14">
         <v>10</v>
       </c>
       <c r="N88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="29.55" spans="1:14">
       <c r="A89" s="9">
         <v>6</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D89" s="21">
         <v>95000</v>
       </c>
@@ -6237,17 +6435,19 @@
         <v>15000000</v>
       </c>
       <c r="N89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="29.55" spans="1:14">
       <c r="A90" s="9">
         <v>6</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D90" s="21">
         <v>1660</v>
       </c>
@@ -6279,66 +6479,70 @@
         <v>130000</v>
       </c>
       <c r="N90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="29.55" spans="1:14">
       <c r="A91" s="9">
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="14">
+        <v>14</v>
+      </c>
+      <c r="E91" s="14">
         <v>20</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="13">
-        <v>14</v>
-      </c>
-      <c r="E91" s="13">
-        <v>20</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="F91" s="14">
         <v>28</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="14">
         <v>39</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="14">
         <v>50</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="14">
         <v>86</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="14">
         <v>206</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="14">
         <v>500</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="14">
         <v>920</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="14">
         <v>2200</v>
       </c>
       <c r="N91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="43.95" spans="1:14">
       <c r="A92" s="9">
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="13">
-        <v>5</v>
-      </c>
-      <c r="E92" s="13">
-        <v>5</v>
-      </c>
-      <c r="F92" s="13">
+        <v>26</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="14">
+        <v>5</v>
+      </c>
+      <c r="E92" s="14">
+        <v>5</v>
+      </c>
+      <c r="F92" s="14">
         <v>5</v>
       </c>
       <c r="G92" s="16">
@@ -6353,7 +6557,7 @@
       <c r="J92" s="21">
         <v>2480</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="14">
         <v>5700</v>
       </c>
       <c r="L92" s="21">
@@ -6363,60 +6567,64 @@
         <v>16000</v>
       </c>
       <c r="N92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" ht="15.05" spans="1:14">
-      <c r="A93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="58.35" spans="1:14">
+      <c r="A93" s="13">
         <v>6</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="13">
-        <v>1</v>
-      </c>
-      <c r="E93" s="13">
-        <v>1</v>
-      </c>
-      <c r="F93" s="13">
-        <v>1</v>
-      </c>
-      <c r="G93" s="13">
-        <v>2</v>
-      </c>
-      <c r="H93" s="13">
-        <v>5</v>
-      </c>
-      <c r="I93" s="13">
-        <v>5</v>
-      </c>
-      <c r="J93" s="13">
+        <v>42</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="14">
+        <v>1</v>
+      </c>
+      <c r="E93" s="14">
+        <v>1</v>
+      </c>
+      <c r="F93" s="14">
+        <v>1</v>
+      </c>
+      <c r="G93" s="14">
+        <v>2</v>
+      </c>
+      <c r="H93" s="14">
+        <v>5</v>
+      </c>
+      <c r="I93" s="14">
+        <v>5</v>
+      </c>
+      <c r="J93" s="14">
         <v>10</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="14">
         <v>20</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="14">
         <v>40</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="14">
         <v>80</v>
       </c>
       <c r="N93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" ht="15.05" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="43.95" spans="1:14">
       <c r="A94" s="9">
         <v>6</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="13">
+        <v>39</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="14">
         <v>8400</v>
       </c>
       <c r="E94" s="21">
@@ -6447,17 +6655,19 @@
         <v>800000</v>
       </c>
       <c r="N94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" ht="15.05" spans="1:14">
-      <c r="A95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="29.55" spans="1:14">
+      <c r="A95" s="13">
         <v>6</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="D95" s="16">
         <v>5</v>
       </c>
@@ -6476,121 +6686,127 @@
       <c r="I95" s="16">
         <v>10</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="14">
         <v>15</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="14">
         <v>30</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="14">
         <v>60</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="14">
         <v>100</v>
       </c>
       <c r="N95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="29.55" spans="1:14">
+      <c r="A96" s="13">
+        <v>6</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="14">
+        <v>1</v>
+      </c>
+      <c r="E96" s="14">
+        <v>1</v>
+      </c>
+      <c r="F96" s="14">
+        <v>1</v>
+      </c>
+      <c r="G96" s="14">
+        <v>1</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="14">
+        <v>1</v>
+      </c>
+      <c r="J96" s="14">
+        <v>2</v>
+      </c>
+      <c r="K96" s="14">
+        <v>3</v>
+      </c>
+      <c r="L96" s="14">
+        <v>5</v>
+      </c>
+      <c r="M96" s="14">
+        <v>8</v>
+      </c>
+      <c r="N96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="43.95" spans="1:14">
+      <c r="A97" s="13">
+        <v>6</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="14">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10">
+        <v>2</v>
+      </c>
+      <c r="F97" s="14">
+        <v>2</v>
+      </c>
+      <c r="G97" s="14">
+        <v>5</v>
+      </c>
+      <c r="H97" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" ht="15.05" spans="1:14">
-      <c r="A96" s="12">
+      <c r="I97" s="14">
+        <v>30</v>
+      </c>
+      <c r="J97" s="14">
+        <v>60</v>
+      </c>
+      <c r="K97" s="14">
+        <v>100</v>
+      </c>
+      <c r="L97" s="14">
+        <v>150</v>
+      </c>
+      <c r="M97" s="14">
+        <v>200</v>
+      </c>
+      <c r="N97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="29.55" spans="1:14">
+      <c r="A98" s="14">
         <v>6</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="13">
-        <v>1</v>
-      </c>
-      <c r="E96" s="13">
-        <v>1</v>
-      </c>
-      <c r="F96" s="13">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13">
-        <v>1</v>
-      </c>
-      <c r="H96" s="13">
-        <v>1</v>
-      </c>
-      <c r="I96" s="13">
-        <v>1</v>
-      </c>
-      <c r="J96" s="13">
-        <v>2</v>
-      </c>
-      <c r="K96" s="13">
-        <v>3</v>
-      </c>
-      <c r="L96" s="13">
-        <v>5</v>
-      </c>
-      <c r="M96" s="13">
-        <v>8</v>
-      </c>
-      <c r="N96" t="s">
+      <c r="B98" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" ht="15.05" spans="1:14">
-      <c r="A97" s="12">
-        <v>6</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="13">
-        <v>2</v>
-      </c>
-      <c r="E97" s="10">
-        <v>2</v>
-      </c>
-      <c r="F97" s="13">
-        <v>2</v>
-      </c>
-      <c r="G97" s="13">
-        <v>5</v>
-      </c>
-      <c r="H97" s="13">
-        <v>15</v>
-      </c>
-      <c r="I97" s="13">
-        <v>30</v>
-      </c>
-      <c r="J97" s="13">
-        <v>60</v>
-      </c>
-      <c r="K97" s="13">
-        <v>100</v>
-      </c>
-      <c r="L97" s="13">
-        <v>150</v>
-      </c>
-      <c r="M97" s="13">
-        <v>200</v>
-      </c>
-      <c r="N97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" spans="1:14">
-      <c r="A98" s="13">
-        <v>6</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="13">
+      <c r="D98" s="14">
         <v>1600</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="14">
         <v>2800</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="14">
         <v>4000</v>
       </c>
       <c r="G98" s="21">
@@ -6615,18 +6831,20 @@
         <v>500000</v>
       </c>
       <c r="N98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="15.05" hidden="1" spans="1:14">
-      <c r="A99" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" ht="43.95" spans="1:14">
+      <c r="A99" s="14">
         <v>6</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="13">
+      <c r="B99" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="14">
         <v>800</v>
       </c>
       <c r="E99" s="21">
@@ -6657,72 +6875,76 @@
         <v>200000</v>
       </c>
       <c r="N99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" ht="15.05" hidden="1" spans="1:14">
-      <c r="A100" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" ht="29.55" spans="1:14">
+      <c r="A100" s="14">
         <v>6</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="13">
+      <c r="B100" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="14">
         <v>70</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="14">
         <v>100</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="14">
         <v>140</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="14">
         <v>180</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="14">
         <v>220</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="14">
         <v>280</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="14">
         <v>300</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="14">
         <v>300</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="14">
         <v>300</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="14">
         <v>300</v>
       </c>
       <c r="N100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" ht="15.05" hidden="1" spans="1:14">
-      <c r="A101" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" ht="58.35" spans="1:14">
+      <c r="A101" s="14">
         <v>6</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="13">
-        <v>1</v>
-      </c>
-      <c r="E101" s="13">
-        <v>1</v>
-      </c>
-      <c r="F101" s="13">
-        <v>2</v>
-      </c>
-      <c r="G101" s="13">
+        <v>44</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="14">
+        <v>1</v>
+      </c>
+      <c r="E101" s="14">
+        <v>1</v>
+      </c>
+      <c r="F101" s="14">
+        <v>2</v>
+      </c>
+      <c r="G101" s="14">
         <v>4</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101" s="14">
         <v>8</v>
       </c>
       <c r="I101" s="16">
@@ -6731,73 +6953,77 @@
       <c r="J101" s="16">
         <v>25</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="14">
         <v>40</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="14">
         <v>60</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="14">
         <v>80</v>
       </c>
       <c r="N101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" ht="15.05" hidden="1" spans="1:14">
-      <c r="A102" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" ht="43.95" spans="1:14">
+      <c r="A102" s="14">
         <v>6</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="13">
-        <v>1</v>
-      </c>
-      <c r="E102" s="13">
-        <v>5</v>
-      </c>
-      <c r="F102" s="13">
+      <c r="B102" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1</v>
+      </c>
+      <c r="E102" s="14">
+        <v>5</v>
+      </c>
+      <c r="F102" s="14">
         <v>10</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="14">
         <v>30</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="14">
         <v>100</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="14">
         <v>185</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="14">
         <v>365</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="14">
         <v>860</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="14">
         <v>1400</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="14">
         <v>3600</v>
       </c>
       <c r="N102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="15.05" hidden="1" spans="1:14">
-      <c r="A103" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" ht="29.55" spans="1:14">
+      <c r="A103" s="14">
         <v>6</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="13">
+      <c r="B103" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="14">
         <v>15000</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="14">
         <v>28000</v>
       </c>
       <c r="F103" s="21">
@@ -6825,70 +7051,55 @@
         <v>3900000</v>
       </c>
       <c r="N103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" ht="15.05" hidden="1" spans="1:14">
-      <c r="A104" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" ht="43.95" spans="1:14">
+      <c r="A104" s="14">
         <v>6</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="13">
+      <c r="B104" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="14">
         <v>200</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="14">
         <v>500</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="14">
         <v>800</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="14">
         <v>1100</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="14">
         <v>1600</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="14">
         <v>2300</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="14">
         <v>5200</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="14">
         <v>9200</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="14">
         <v>15000</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="14">
         <v>45000</v>
       </c>
       <c r="N104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N104" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="单场直播ACU"/>
-        <filter val="7天内累计涨粉数（单位：人）"/>
-        <filter val="7天内累计PK胜利次数（单位：次）"/>
-        <filter val="7天内累计开播时长（单位：分钟）"/>
-        <filter val="7天内进行co-host时长（单位：分钟）"/>
-        <filter val="7天内使用连麦时长（单位：分钟）"/>
-        <filter val="7天内累计被看播时长（单位：分钟）"/>
-        <filter val="7天内累计有效开播天（单位：天）"/>
-        <filter val="7天内累计发布短视频（单位：条）"/>
-        <filter val="7天内累计获得点赞数（单位：个）"/>
-        <filter val="7天内累计获得钻石数（单位：钻）"/>
-        <filter val="7天内累计获得评论数（单位：条）"/>
-        <filter val="7天内累计新增订阅数（单位：次）"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6906,47 +7117,47 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.05" spans="1:12">
+    <row r="1" ht="15.15" spans="1:12">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="15.9" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6982,7 +7193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" ht="15.05" spans="1:12">
+    <row r="3" ht="15.15" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -7018,7 +7229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="15.05" spans="1:12">
+    <row r="4" ht="15.15" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -7054,7 +7265,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" ht="15.05" spans="1:12">
+    <row r="5" ht="15.15" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -7090,7 +7301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" ht="15.05" spans="1:12">
+    <row r="6" ht="15.15" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -7126,7 +7337,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" ht="15.05" spans="1:12">
+    <row r="7" ht="15.15" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -7164,7 +7375,7 @@
     </row>
     <row r="8" ht="15.9" customHeight="1" spans="1:12">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7200,7 +7411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="15.05" spans="1:12">
+    <row r="9" ht="15.15" spans="1:12">
       <c r="A9" s="6"/>
       <c r="B9" s="4">
         <v>2</v>
@@ -7236,7 +7447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15.05" spans="1:12">
+    <row r="10" ht="15.15" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" s="4">
         <v>3</v>
@@ -7272,7 +7483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.05" spans="1:12">
+    <row r="11" ht="15.15" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" s="4">
         <v>4</v>
@@ -7308,7 +7519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="15.05" spans="1:12">
+    <row r="12" ht="15.15" spans="1:12">
       <c r="A12" s="6"/>
       <c r="B12" s="4">
         <v>5</v>
@@ -7344,7 +7555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="15.05" spans="1:12">
+    <row r="13" ht="15.15" spans="1:12">
       <c r="A13" s="6"/>
       <c r="B13" s="4">
         <v>6</v>
@@ -7380,10 +7591,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="15.05" spans="1:12">
+    <row r="14" ht="15.15" spans="1:12">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -7413,7 +7624,7 @@
         <v>80</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7436,54 +7647,54 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="15.05" spans="1:2">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" ht="15.05" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="15.05" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="15.05" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" ht="15.05" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" ht="15.05" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/api_tests/data/tasks.xlsx
+++ b/api_tests/data/tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8460"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,9 @@
     <t>7天内累计获得评论数（单位：条）</t>
   </si>
   <si>
+    <t>live_comment_count</t>
+  </si>
+  <si>
     <t>7天内累计被看播时长（单位：分钟）</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>单日直播评论数</t>
-  </si>
-  <si>
-    <t>live_comment_count</t>
   </si>
   <si>
     <t>单日涨粉数</t>
@@ -2508,21 +2508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="70.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="17.7037037037037" customWidth="1"/>
+    <col min="2" max="2" width="70.5575221238938" customWidth="1"/>
+    <col min="12" max="12" width="18.5840707964602" customWidth="1"/>
+    <col min="13" max="13" width="17.7079646017699" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.35" spans="1:14">
+    <row r="1" ht="16.05" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="29.55" spans="1:14">
+    <row r="2" ht="29.4" hidden="1" spans="1:14">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="43.95" spans="1:14">
+    <row r="3" ht="43.75" hidden="1" spans="1:14">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="29.55" spans="1:14">
+    <row r="4" ht="29.4" hidden="1" spans="1:14">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2698,15 +2698,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="29.55" spans="1:14">
+    <row r="5" ht="15.05" spans="1:14">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -2742,15 +2742,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="43.95" spans="1:14">
+    <row r="6" ht="43" hidden="1" spans="1:14">
       <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
@@ -2786,15 +2786,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="29.55" spans="1:14">
+    <row r="7" ht="29.4" hidden="1" spans="1:14">
       <c r="A7" s="9">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2830,15 +2830,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="43.95" spans="1:14">
+    <row r="8" ht="43.75" hidden="1" spans="1:14">
       <c r="A8" s="9">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2874,15 +2874,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="72.75" spans="1:14">
+    <row r="9" ht="72.4" hidden="1" spans="1:14">
       <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2918,15 +2918,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="43.95" spans="1:14">
+    <row r="10" ht="43.75" hidden="1" spans="1:14">
       <c r="A10" s="13">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
@@ -2962,12 +2962,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="29.55" spans="1:14">
+    <row r="11" ht="29.4" hidden="1" spans="1:14">
       <c r="A11" s="14">
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
@@ -3003,15 +3003,15 @@
         <v>300</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="29.4" hidden="1" spans="1:14">
       <c r="A12" s="14">
         <v>1</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
@@ -3047,15 +3047,15 @@
         <v>2550</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="29.4" hidden="1" spans="1:14">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>20</v>
@@ -3091,18 +3091,18 @@
         <v>30000</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="43.75" hidden="1" spans="1:14">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -3135,10 +3135,10 @@
         <v>630</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="43.75" hidden="1" spans="1:14">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -3179,10 +3179,10 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="29.4" hidden="1" spans="1:14">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="43.95" spans="1:14">
+    <row r="17" ht="43.75" hidden="1" spans="1:14">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="29.55" spans="1:14">
+    <row r="18" ht="29.4" hidden="1" spans="1:14">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -3314,15 +3314,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="29.55" spans="1:14">
+    <row r="19" ht="15.05" spans="1:14">
       <c r="A19" s="9">
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3358,15 +3358,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="43.95" spans="1:14">
+    <row r="20" ht="43" hidden="1" spans="1:14">
       <c r="A20" s="12">
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="10">
         <v>10</v>
@@ -3402,15 +3402,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="29.55" spans="1:14">
+    <row r="21" ht="29.4" hidden="1" spans="1:14">
       <c r="A21" s="9">
         <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -3446,15 +3446,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="43.95" spans="1:14">
+    <row r="22" ht="43.75" hidden="1" spans="1:14">
       <c r="A22" s="9">
         <v>2</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -3490,15 +3490,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="72.75" spans="1:14">
+    <row r="23" ht="72.4" hidden="1" spans="1:14">
       <c r="A23" s="9">
         <v>2</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="43.95" spans="1:14">
+    <row r="24" ht="43.75" hidden="1" spans="1:14">
       <c r="A24" s="9">
         <v>2</v>
       </c>
@@ -3578,15 +3578,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="43.95" spans="1:14">
+    <row r="25" ht="43.75" hidden="1" spans="1:14">
       <c r="A25" s="13">
         <v>2</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
@@ -3622,12 +3622,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="29.55" spans="1:14">
+    <row r="26" ht="29.4" hidden="1" spans="1:14">
       <c r="A26" s="14">
         <v>2</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -3663,15 +3663,15 @@
         <v>5900</v>
       </c>
       <c r="N26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="29.4" hidden="1" spans="1:14">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" ht="29.55" spans="1:14">
-      <c r="A27" s="14">
-        <v>2</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>15</v>
@@ -3707,10 +3707,10 @@
         <v>300</v>
       </c>
       <c r="N27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" ht="43.75" hidden="1" spans="1:14">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
@@ -3751,15 +3751,15 @@
         <v>135</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="29.4" hidden="1" spans="1:14">
       <c r="A29" s="14">
         <v>2</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>20</v>
@@ -3795,18 +3795,18 @@
         <v>70000</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="43.75" hidden="1" spans="1:14">
       <c r="A30" s="14">
         <v>2</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14">
         <v>2</v>
@@ -3839,10 +3839,10 @@
         <v>1600</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" ht="29.4" hidden="1" spans="1:14">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="43.95" spans="1:14">
+    <row r="32" ht="43.75" hidden="1" spans="1:14">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="29.55" spans="1:14">
+    <row r="33" ht="29.4" hidden="1" spans="1:14">
       <c r="A33" s="9">
         <v>3</v>
       </c>
@@ -3974,15 +3974,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="29.55" spans="1:14">
+    <row r="34" ht="15.05" spans="1:14">
       <c r="A34" s="9">
         <v>3</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>20</v>
+      <c r="C34" t="s">
+        <v>22</v>
       </c>
       <c r="D34" s="19">
         <v>8</v>
@@ -4018,15 +4018,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="43.95" spans="1:14">
+    <row r="35" ht="43" hidden="1" spans="1:14">
       <c r="A35" s="12">
         <v>3</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" s="10">
         <v>45</v>
@@ -4062,15 +4062,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="29.55" spans="1:14">
+    <row r="36" ht="29.4" hidden="1" spans="1:14">
       <c r="A36" s="9">
         <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -4106,15 +4106,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="43.95" spans="1:14">
+    <row r="37" ht="43.75" hidden="1" spans="1:14">
       <c r="A37" s="9">
         <v>3</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="10">
         <v>2</v>
@@ -4150,15 +4150,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="72.75" spans="1:14">
+    <row r="38" ht="72.4" hidden="1" spans="1:14">
       <c r="A38" s="9">
         <v>3</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -4194,7 +4194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="43.95" spans="1:14">
+    <row r="39" ht="43.75" hidden="1" spans="1:14">
       <c r="A39" s="9">
         <v>3</v>
       </c>
@@ -4238,15 +4238,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="43.95" spans="1:14">
+    <row r="40" ht="43.75" hidden="1" spans="1:14">
       <c r="A40" s="13">
         <v>3</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="14">
         <v>2</v>
@@ -4282,12 +4282,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="29.55" spans="1:14">
+    <row r="41" ht="29.4" hidden="1" spans="1:14">
       <c r="A41" s="14">
         <v>3</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
@@ -4323,10 +4323,10 @@
         <v>15000</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" ht="43.75" hidden="1" spans="1:14">
       <c r="A42" s="14">
         <v>3</v>
       </c>
@@ -4367,15 +4367,15 @@
         <v>2800</v>
       </c>
       <c r="N42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" ht="29.4" hidden="1" spans="1:14">
       <c r="A43" s="14">
         <v>3</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>15</v>
@@ -4411,10 +4411,10 @@
         <v>300</v>
       </c>
       <c r="N43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" ht="43.75" hidden="1" spans="1:14">
       <c r="A44" s="14">
         <v>3</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="14">
         <v>1</v>
@@ -4455,15 +4455,15 @@
         <v>250</v>
       </c>
       <c r="N44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" ht="29.4" hidden="1" spans="1:14">
       <c r="A45" s="14">
         <v>3</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>20</v>
@@ -4499,18 +4499,18 @@
         <v>145000</v>
       </c>
       <c r="N45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" ht="43.75" hidden="1" spans="1:14">
       <c r="A46" s="14">
         <v>3</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D46" s="14">
         <v>2</v>
@@ -4543,10 +4543,10 @@
         <v>3200</v>
       </c>
       <c r="N46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" ht="29.4" hidden="1" spans="1:14">
       <c r="A47" s="9">
         <v>4</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" ht="43.95" spans="1:14">
+    <row r="48" ht="43.75" hidden="1" spans="1:14">
       <c r="A48" s="9">
         <v>4</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" ht="29.55" spans="1:14">
+    <row r="49" ht="29.4" hidden="1" spans="1:14">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -4678,15 +4678,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="29.55" spans="1:14">
+    <row r="50" ht="15.05" spans="1:14">
       <c r="A50" s="9">
         <v>4</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>20</v>
+      <c r="C50" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="16">
         <v>55</v>
@@ -4722,15 +4722,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="43.95" spans="1:14">
+    <row r="51" ht="43" hidden="1" spans="1:14">
       <c r="A51" s="12">
         <v>4</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" s="14">
         <v>200</v>
@@ -4766,15 +4766,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="29.55" spans="1:14">
+    <row r="52" ht="29.4" hidden="1" spans="1:14">
       <c r="A52" s="9">
         <v>4</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -4810,15 +4810,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="43.95" spans="1:14">
+    <row r="53" ht="43.75" hidden="1" spans="1:14">
       <c r="A53" s="9">
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -4854,15 +4854,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" ht="72.75" spans="1:14">
+    <row r="54" ht="72.4" hidden="1" spans="1:14">
       <c r="A54" s="9">
         <v>4</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="14">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" ht="43.95" spans="1:14">
+    <row r="55" ht="43.75" hidden="1" spans="1:14">
       <c r="A55" s="9">
         <v>4</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" ht="58.35" spans="1:14">
+    <row r="56" ht="58.1" hidden="1" spans="1:14">
       <c r="A56" s="13">
         <v>4</v>
       </c>
@@ -4986,15 +4986,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" ht="43.95" spans="1:14">
+    <row r="57" ht="43.75" hidden="1" spans="1:14">
       <c r="A57" s="13">
         <v>4</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -5030,12 +5030,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" ht="29.55" spans="1:14">
+    <row r="58" ht="29.4" hidden="1" spans="1:14">
       <c r="A58" s="14">
         <v>4</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>15</v>
@@ -5071,10 +5071,10 @@
         <v>33000</v>
       </c>
       <c r="N58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" ht="43.75" hidden="1" spans="1:14">
       <c r="A59" s="14">
         <v>4</v>
       </c>
@@ -5115,15 +5115,15 @@
         <v>15000</v>
       </c>
       <c r="N59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" ht="29.4" hidden="1" spans="1:14">
       <c r="A60" s="14">
         <v>4</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>15</v>
@@ -5159,10 +5159,10 @@
         <v>300</v>
       </c>
       <c r="N60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" ht="58.35" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" ht="58.1" hidden="1" spans="1:14">
       <c r="A61" s="14">
         <v>4</v>
       </c>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" ht="43.75" hidden="1" spans="1:14">
       <c r="A62" s="14">
         <v>4</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="14">
         <v>1</v>
@@ -5247,15 +5247,15 @@
         <v>460</v>
       </c>
       <c r="N62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" ht="29.4" hidden="1" spans="1:14">
       <c r="A63" s="14">
         <v>4</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>20</v>
@@ -5291,18 +5291,18 @@
         <v>299000</v>
       </c>
       <c r="N63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" ht="43.75" hidden="1" spans="1:14">
       <c r="A64" s="14">
         <v>4</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D64" s="14">
         <v>15</v>
@@ -5335,10 +5335,10 @@
         <v>5800</v>
       </c>
       <c r="N64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" ht="29.4" hidden="1" spans="1:14">
       <c r="A65" s="9">
         <v>5</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="43.95" spans="1:14">
+    <row r="66" ht="43.75" hidden="1" spans="1:14">
       <c r="A66" s="9">
         <v>5</v>
       </c>
@@ -5426,15 +5426,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" ht="43.95" spans="1:14">
+    <row r="67" ht="43.75" hidden="1" spans="1:14">
       <c r="A67" s="12">
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" s="21">
         <v>1000</v>
@@ -5470,15 +5470,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" ht="72.75" spans="1:14">
+    <row r="68" ht="72.4" hidden="1" spans="1:14">
       <c r="A68" s="9">
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="14">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" ht="29.55" spans="1:14">
+    <row r="69" ht="29.4" hidden="1" spans="1:14">
       <c r="A69" s="9">
         <v>5</v>
       </c>
@@ -5558,15 +5558,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" ht="29.55" spans="1:14">
+    <row r="70" ht="15.05" spans="1:14">
       <c r="A70" s="9">
         <v>5</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>20</v>
+      <c r="C70" t="s">
+        <v>22</v>
       </c>
       <c r="D70" s="14">
         <v>360</v>
@@ -5602,15 +5602,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" ht="29.55" spans="1:14">
+    <row r="71" ht="28.65" hidden="1" spans="1:14">
       <c r="A71" s="9">
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" s="14">
         <v>4</v>
@@ -5646,15 +5646,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="43.95" spans="1:14">
+    <row r="72" ht="43.75" hidden="1" spans="1:14">
       <c r="A72" s="9">
         <v>5</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="14">
         <v>5</v>
@@ -5690,7 +5690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="58.35" spans="1:14">
+    <row r="73" ht="58.1" hidden="1" spans="1:14">
       <c r="A73" s="13">
         <v>5</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" ht="43.95" spans="1:14">
+    <row r="74" ht="43.75" hidden="1" spans="1:14">
       <c r="A74" s="9">
         <v>5</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" ht="29.55" spans="1:14">
+    <row r="75" ht="29.4" hidden="1" spans="1:14">
       <c r="A75" s="13">
         <v>5</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" ht="29.55" spans="1:14">
+    <row r="76" ht="29.4" hidden="1" spans="1:14">
       <c r="A76" s="13">
         <v>5</v>
       </c>
@@ -5866,15 +5866,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="43.95" spans="1:14">
+    <row r="77" ht="43.75" hidden="1" spans="1:14">
       <c r="A77" s="13">
         <v>5</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="14">
         <v>2</v>
@@ -5910,12 +5910,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" ht="29.55" spans="1:14">
+    <row r="78" ht="29.4" hidden="1" spans="1:14">
       <c r="A78" s="14">
         <v>5</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>15</v>
@@ -5951,10 +5951,10 @@
         <v>100000</v>
       </c>
       <c r="N78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" ht="43.75" hidden="1" spans="1:14">
       <c r="A79" s="14">
         <v>5</v>
       </c>
@@ -5995,15 +5995,15 @@
         <v>82000</v>
       </c>
       <c r="N79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" ht="29.4" hidden="1" spans="1:14">
+      <c r="A80" s="14">
+        <v>5</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="80" ht="29.55" spans="1:14">
-      <c r="A80" s="14">
-        <v>5</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>15</v>
@@ -6039,10 +6039,10 @@
         <v>300</v>
       </c>
       <c r="N80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" ht="58.35" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" ht="58.1" hidden="1" spans="1:14">
       <c r="A81" s="14">
         <v>5</v>
       </c>
@@ -6083,10 +6083,10 @@
         <v>16</v>
       </c>
       <c r="N81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" ht="43.75" hidden="1" spans="1:14">
       <c r="A82" s="14">
         <v>5</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>38</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="14">
         <v>1</v>
@@ -6127,15 +6127,15 @@
         <v>900</v>
       </c>
       <c r="N82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" ht="29.4" hidden="1" spans="1:14">
       <c r="A83" s="14">
         <v>5</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>20</v>
@@ -6171,18 +6171,18 @@
         <v>714000</v>
       </c>
       <c r="N83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" ht="43.75" hidden="1" spans="1:14">
       <c r="A84" s="14">
         <v>5</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D84" s="14">
         <v>80</v>
@@ -6215,10 +6215,10 @@
         <v>13500</v>
       </c>
       <c r="N84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" ht="29.4" hidden="1" spans="1:14">
       <c r="A85" s="9">
         <v>6</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" ht="43.95" spans="1:14">
+    <row r="86" ht="43.75" hidden="1" spans="1:14">
       <c r="A86" s="9">
         <v>6</v>
       </c>
@@ -6306,15 +6306,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" ht="43.95" spans="1:14">
+    <row r="87" ht="43.75" hidden="1" spans="1:14">
       <c r="A87" s="12">
         <v>6</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D87" s="21">
         <v>11000</v>
@@ -6350,15 +6350,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" ht="72.75" spans="1:14">
+    <row r="88" ht="72.4" hidden="1" spans="1:14">
       <c r="A88" s="9">
         <v>6</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" s="14">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" ht="29.55" spans="1:14">
+    <row r="89" ht="29.4" hidden="1" spans="1:14">
       <c r="A89" s="9">
         <v>6</v>
       </c>
@@ -6438,15 +6438,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" ht="29.55" spans="1:14">
+    <row r="90" ht="15.05" spans="1:14">
       <c r="A90" s="9">
         <v>6</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>20</v>
+      <c r="C90" t="s">
+        <v>22</v>
       </c>
       <c r="D90" s="21">
         <v>1660</v>
@@ -6482,15 +6482,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" ht="29.55" spans="1:14">
+    <row r="91" ht="28.65" hidden="1" spans="1:14">
       <c r="A91" s="9">
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D91" s="14">
         <v>14</v>
@@ -6526,15 +6526,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" ht="43.95" spans="1:14">
+    <row r="92" ht="43.75" hidden="1" spans="1:14">
       <c r="A92" s="9">
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="14">
         <v>5</v>
@@ -6570,7 +6570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" ht="58.35" spans="1:14">
+    <row r="93" ht="58.1" hidden="1" spans="1:14">
       <c r="A93" s="13">
         <v>6</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" ht="43.95" spans="1:14">
+    <row r="94" ht="43.75" hidden="1" spans="1:14">
       <c r="A94" s="9">
         <v>6</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" ht="29.55" spans="1:14">
+    <row r="95" ht="29.4" hidden="1" spans="1:14">
       <c r="A95" s="13">
         <v>6</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" ht="29.55" spans="1:14">
+    <row r="96" ht="29.4" hidden="1" spans="1:14">
       <c r="A96" s="13">
         <v>6</v>
       </c>
@@ -6746,15 +6746,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" ht="43.95" spans="1:14">
+    <row r="97" ht="43.75" hidden="1" spans="1:14">
       <c r="A97" s="13">
         <v>6</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="14">
         <v>2</v>
@@ -6790,12 +6790,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" ht="29.55" spans="1:14">
+    <row r="98" ht="29.4" hidden="1" spans="1:14">
       <c r="A98" s="14">
         <v>6</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>15</v>
@@ -6831,10 +6831,10 @@
         <v>500000</v>
       </c>
       <c r="N98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" ht="43.75" hidden="1" spans="1:14">
       <c r="A99" s="14">
         <v>6</v>
       </c>
@@ -6875,15 +6875,15 @@
         <v>200000</v>
       </c>
       <c r="N99" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" ht="29.4" hidden="1" spans="1:14">
       <c r="A100" s="14">
         <v>6</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>15</v>
@@ -6919,10 +6919,10 @@
         <v>300</v>
       </c>
       <c r="N100" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" ht="58.35" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" ht="58.1" hidden="1" spans="1:14">
       <c r="A101" s="14">
         <v>6</v>
       </c>
@@ -6963,10 +6963,10 @@
         <v>80</v>
       </c>
       <c r="N101" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" ht="43.75" hidden="1" spans="1:14">
       <c r="A102" s="14">
         <v>6</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>38</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="14">
         <v>1</v>
@@ -7007,15 +7007,15 @@
         <v>3600</v>
       </c>
       <c r="N102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" ht="29.55" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" ht="29.4" hidden="1" spans="1:14">
       <c r="A103" s="14">
         <v>6</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>20</v>
@@ -7051,18 +7051,18 @@
         <v>3900000</v>
       </c>
       <c r="N103" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" ht="43.95" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" ht="43.75" hidden="1" spans="1:14">
       <c r="A104" s="14">
         <v>6</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D104" s="14">
         <v>200</v>
@@ -7095,11 +7095,21 @@
         <v>45000</v>
       </c>
       <c r="N104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N104" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="7天内累计获得评论数（单位：条）"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="live_like_count"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7117,9 +7127,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:12">
+    <row r="1" ht="15.05" spans="1:12">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>49</v>
@@ -7193,7 +7203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:12">
+    <row r="3" ht="15.05" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -7229,7 +7239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:12">
+    <row r="4" ht="15.05" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -7265,7 +7275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:12">
+    <row r="5" ht="15.05" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -7301,7 +7311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:12">
+    <row r="6" ht="15.05" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -7337,7 +7347,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:12">
+    <row r="7" ht="15.05" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -7411,7 +7421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:12">
+    <row r="9" ht="15.05" spans="1:12">
       <c r="A9" s="6"/>
       <c r="B9" s="4">
         <v>2</v>
@@ -7447,7 +7457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:12">
+    <row r="10" ht="15.05" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" s="4">
         <v>3</v>
@@ -7483,7 +7493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:12">
+    <row r="11" ht="15.05" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" s="4">
         <v>4</v>
@@ -7519,7 +7529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:12">
+    <row r="12" ht="15.05" spans="1:12">
       <c r="A12" s="6"/>
       <c r="B12" s="4">
         <v>5</v>
@@ -7555,7 +7565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:12">
+    <row r="13" ht="15.05" spans="1:12">
       <c r="A13" s="6"/>
       <c r="B13" s="4">
         <v>6</v>
@@ -7591,7 +7601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:12">
+    <row r="14" ht="15.05" spans="1:12">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>62</v>
@@ -7647,9 +7657,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:2">
+    <row r="1" ht="15.05" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -7657,7 +7667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:2">
+    <row r="2" ht="15.05" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -7665,7 +7675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:2">
+    <row r="3" ht="15.05" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -7673,7 +7683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:2">
+    <row r="4" ht="15.05" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -7681,7 +7691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:2">
+    <row r="5" ht="15.05" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:2">
+    <row r="6" ht="15.05" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>

--- a/api_tests/data/tasks.xlsx
+++ b/api_tests/data/tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="21000" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2512,17 +2512,18 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="70.5575221238938" customWidth="1"/>
-    <col min="12" max="12" width="18.5840707964602" customWidth="1"/>
-    <col min="13" max="13" width="17.7079646017699" customWidth="1"/>
+    <col min="2" max="2" width="70.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="24.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="17.7037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" spans="1:14">
+    <row r="1" ht="16.35" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="29.4" hidden="1" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="43.75" hidden="1" spans="1:14">
+    <row r="3" ht="43.95" hidden="1" spans="1:14">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="29.4" hidden="1" spans="1:14">
+    <row r="4" ht="29.55" hidden="1" spans="1:14">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.05" spans="1:14">
+    <row r="5" ht="15.15" hidden="1" spans="1:14">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="43" hidden="1" spans="1:14">
+    <row r="6" ht="43.95" hidden="1" spans="1:14">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="29.4" hidden="1" spans="1:14">
+    <row r="7" ht="29.55" hidden="1" spans="1:14">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="43.75" hidden="1" spans="1:14">
+    <row r="8" ht="43.95" hidden="1" spans="1:14">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="72.4" hidden="1" spans="1:14">
+    <row r="9" ht="72.75" hidden="1" spans="1:14">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="43.75" hidden="1" spans="1:14">
+    <row r="10" ht="15.15" hidden="1" spans="1:14">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="29.4" hidden="1" spans="1:14">
+    <row r="11" ht="15.15" hidden="1" spans="1:14">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="29.4" hidden="1" spans="1:14">
+    <row r="12" ht="15.15" spans="1:14">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D12" s="14">
         <v>2</v>
@@ -3050,7 +3051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="29.4" hidden="1" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="43.75" hidden="1" spans="1:14">
+    <row r="14" ht="43.95" hidden="1" spans="1:14">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="43.75" hidden="1" spans="1:14">
+    <row r="15" ht="43.95" hidden="1" spans="1:14">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="29.4" hidden="1" spans="1:14">
+    <row r="16" ht="29.55" hidden="1" spans="1:14">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="43.75" hidden="1" spans="1:14">
+    <row r="17" ht="43.95" hidden="1" spans="1:14">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="29.4" hidden="1" spans="1:14">
+    <row r="18" ht="29.55" hidden="1" spans="1:14">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="15.05" spans="1:14">
+    <row r="19" ht="15.15" hidden="1" spans="1:14">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="43" hidden="1" spans="1:14">
+    <row r="20" ht="43.95" hidden="1" spans="1:14">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="29.4" hidden="1" spans="1:14">
+    <row r="21" ht="29.55" hidden="1" spans="1:14">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="43.75" hidden="1" spans="1:14">
+    <row r="22" ht="43.95" hidden="1" spans="1:14">
       <c r="A22" s="9">
         <v>2</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="72.4" hidden="1" spans="1:14">
+    <row r="23" ht="72.75" hidden="1" spans="1:14">
       <c r="A23" s="9">
         <v>2</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="43.75" hidden="1" spans="1:14">
+    <row r="24" ht="43.95" hidden="1" spans="1:14">
       <c r="A24" s="9">
         <v>2</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="43.75" hidden="1" spans="1:14">
+    <row r="25" ht="15.15" hidden="1" spans="1:14">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="29.4" hidden="1" spans="1:14">
+    <row r="26" ht="15.15" spans="1:14">
       <c r="A26" s="14">
         <v>2</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26" s="14">
         <v>5</v>
@@ -3666,7 +3667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" ht="29.4" hidden="1" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27" s="14">
         <v>2</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" ht="43.75" hidden="1" spans="1:14">
+    <row r="28" ht="15.15" hidden="1" spans="1:14">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" ht="29.4" hidden="1" spans="1:14">
+    <row r="29" ht="29.55" hidden="1" spans="1:14">
       <c r="A29" s="14">
         <v>2</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="43.75" hidden="1" spans="1:14">
+    <row r="30" ht="43.95" hidden="1" spans="1:14">
       <c r="A30" s="14">
         <v>2</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" ht="29.4" hidden="1" spans="1:14">
+    <row r="31" ht="29.55" hidden="1" spans="1:14">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="43.75" hidden="1" spans="1:14">
+    <row r="32" ht="43.95" hidden="1" spans="1:14">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="29.4" hidden="1" spans="1:14">
+    <row r="33" ht="29.55" hidden="1" spans="1:14">
       <c r="A33" s="9">
         <v>3</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="15.05" spans="1:14">
+    <row r="34" ht="15.15" hidden="1" spans="1:14">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="43" hidden="1" spans="1:14">
+    <row r="35" ht="43.95" hidden="1" spans="1:14">
       <c r="A35" s="12">
         <v>3</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="29.4" hidden="1" spans="1:14">
+    <row r="36" ht="29.55" hidden="1" spans="1:14">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="43.75" hidden="1" spans="1:14">
+    <row r="37" ht="43.95" hidden="1" spans="1:14">
       <c r="A37" s="9">
         <v>3</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="72.4" hidden="1" spans="1:14">
+    <row r="38" ht="72.75" hidden="1" spans="1:14">
       <c r="A38" s="9">
         <v>3</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="43.75" hidden="1" spans="1:14">
+    <row r="39" ht="43.95" hidden="1" spans="1:14">
       <c r="A39" s="9">
         <v>3</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="43.75" hidden="1" spans="1:14">
+    <row r="40" ht="15.15" hidden="1" spans="1:14">
       <c r="A40" s="13">
         <v>3</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="29.4" hidden="1" spans="1:14">
+    <row r="41" ht="15.15" spans="1:14">
       <c r="A41" s="14">
         <v>3</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D41" s="14">
         <v>20</v>
@@ -4326,7 +4327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" ht="43.75" hidden="1" spans="1:14">
+    <row r="42" hidden="1" spans="1:14">
       <c r="A42" s="14">
         <v>3</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" ht="29.4" hidden="1" spans="1:14">
+    <row r="43" ht="15.15" hidden="1" spans="1:14">
       <c r="A43" s="14">
         <v>3</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" ht="43.75" hidden="1" spans="1:14">
+    <row r="44" ht="15.15" hidden="1" spans="1:14">
       <c r="A44" s="14">
         <v>3</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" ht="29.4" hidden="1" spans="1:14">
+    <row r="45" ht="29.55" hidden="1" spans="1:14">
       <c r="A45" s="14">
         <v>3</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" ht="43.75" hidden="1" spans="1:14">
+    <row r="46" ht="43.95" hidden="1" spans="1:14">
       <c r="A46" s="14">
         <v>3</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" ht="29.4" hidden="1" spans="1:14">
+    <row r="47" ht="29.55" hidden="1" spans="1:14">
       <c r="A47" s="9">
         <v>4</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" ht="43.75" hidden="1" spans="1:14">
+    <row r="48" ht="43.95" hidden="1" spans="1:14">
       <c r="A48" s="9">
         <v>4</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" ht="29.4" hidden="1" spans="1:14">
+    <row r="49" ht="29.55" hidden="1" spans="1:14">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="15.05" spans="1:14">
+    <row r="50" ht="15.15" hidden="1" spans="1:14">
       <c r="A50" s="9">
         <v>4</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" ht="43" hidden="1" spans="1:14">
+    <row r="51" ht="43.95" hidden="1" spans="1:14">
       <c r="A51" s="12">
         <v>4</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="29.4" hidden="1" spans="1:14">
+    <row r="52" ht="29.55" hidden="1" spans="1:14">
       <c r="A52" s="9">
         <v>4</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="43.75" hidden="1" spans="1:14">
+    <row r="53" ht="43.95" hidden="1" spans="1:14">
       <c r="A53" s="9">
         <v>4</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" ht="72.4" hidden="1" spans="1:14">
+    <row r="54" ht="72.75" hidden="1" spans="1:14">
       <c r="A54" s="9">
         <v>4</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" ht="43.75" hidden="1" spans="1:14">
+    <row r="55" ht="43.95" hidden="1" spans="1:14">
       <c r="A55" s="9">
         <v>4</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" ht="58.1" hidden="1" spans="1:14">
+    <row r="56" ht="58.35" hidden="1" spans="1:14">
       <c r="A56" s="13">
         <v>4</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" ht="43.75" hidden="1" spans="1:14">
+    <row r="57" ht="15.15" hidden="1" spans="1:14">
       <c r="A57" s="13">
         <v>4</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" ht="29.4" hidden="1" spans="1:14">
+    <row r="58" ht="15.15" spans="1:14">
       <c r="A58" s="14">
         <v>4</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D58" s="14">
         <v>70</v>
@@ -5074,7 +5075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" ht="43.75" hidden="1" spans="1:14">
+    <row r="59" hidden="1" spans="1:14">
       <c r="A59" s="14">
         <v>4</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" ht="29.4" hidden="1" spans="1:14">
+    <row r="60" ht="15.15" hidden="1" spans="1:14">
       <c r="A60" s="14">
         <v>4</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" ht="58.1" hidden="1" spans="1:14">
+    <row r="61" ht="29.55" hidden="1" spans="1:14">
       <c r="A61" s="14">
         <v>4</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" ht="43.75" hidden="1" spans="1:14">
+    <row r="62" ht="43.95" hidden="1" spans="1:14">
       <c r="A62" s="14">
         <v>4</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" ht="29.4" hidden="1" spans="1:14">
+    <row r="63" ht="29.55" hidden="1" spans="1:14">
       <c r="A63" s="14">
         <v>4</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" ht="43.75" hidden="1" spans="1:14">
+    <row r="64" ht="43.95" hidden="1" spans="1:14">
       <c r="A64" s="14">
         <v>4</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" ht="29.4" hidden="1" spans="1:14">
+    <row r="65" ht="29.55" hidden="1" spans="1:14">
       <c r="A65" s="9">
         <v>5</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="43.75" hidden="1" spans="1:14">
+    <row r="66" ht="43.95" hidden="1" spans="1:14">
       <c r="A66" s="9">
         <v>5</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" ht="43.75" hidden="1" spans="1:14">
+    <row r="67" ht="43.95" hidden="1" spans="1:14">
       <c r="A67" s="12">
         <v>5</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" ht="72.4" hidden="1" spans="1:14">
+    <row r="68" ht="72.75" hidden="1" spans="1:14">
       <c r="A68" s="9">
         <v>5</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" ht="29.4" hidden="1" spans="1:14">
+    <row r="69" ht="29.55" hidden="1" spans="1:14">
       <c r="A69" s="9">
         <v>5</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" ht="15.05" spans="1:14">
+    <row r="70" ht="15.15" hidden="1" spans="1:14">
       <c r="A70" s="9">
         <v>5</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" ht="28.65" hidden="1" spans="1:14">
+    <row r="71" ht="29.55" hidden="1" spans="1:14">
       <c r="A71" s="9">
         <v>5</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="43.75" hidden="1" spans="1:14">
+    <row r="72" ht="43.95" hidden="1" spans="1:14">
       <c r="A72" s="9">
         <v>5</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="58.1" hidden="1" spans="1:14">
+    <row r="73" ht="58.35" hidden="1" spans="1:14">
       <c r="A73" s="13">
         <v>5</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" ht="43.75" hidden="1" spans="1:14">
+    <row r="74" ht="43.95" hidden="1" spans="1:14">
       <c r="A74" s="9">
         <v>5</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" ht="29.4" hidden="1" spans="1:14">
+    <row r="75" ht="29.55" hidden="1" spans="1:14">
       <c r="A75" s="13">
         <v>5</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" ht="29.4" hidden="1" spans="1:14">
+    <row r="76" ht="29.55" hidden="1" spans="1:14">
       <c r="A76" s="13">
         <v>5</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="43.75" hidden="1" spans="1:14">
+    <row r="77" ht="15.15" hidden="1" spans="1:14">
       <c r="A77" s="13">
         <v>5</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" ht="29.4" hidden="1" spans="1:14">
+    <row r="78" ht="15.15" spans="1:14">
       <c r="A78" s="14">
         <v>5</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>35</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D78" s="14">
         <v>300</v>
@@ -5954,7 +5955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" ht="43.75" hidden="1" spans="1:14">
+    <row r="79" hidden="1" spans="1:14">
       <c r="A79" s="14">
         <v>5</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" ht="29.4" hidden="1" spans="1:14">
+    <row r="80" ht="15.15" hidden="1" spans="1:14">
       <c r="A80" s="14">
         <v>5</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" ht="58.1" hidden="1" spans="1:14">
+    <row r="81" ht="29.55" hidden="1" spans="1:14">
       <c r="A81" s="14">
         <v>5</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" ht="43.75" hidden="1" spans="1:14">
+    <row r="82" ht="43.95" hidden="1" spans="1:14">
       <c r="A82" s="14">
         <v>5</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" ht="29.4" hidden="1" spans="1:14">
+    <row r="83" ht="29.55" hidden="1" spans="1:14">
       <c r="A83" s="14">
         <v>5</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" ht="43.75" hidden="1" spans="1:14">
+    <row r="84" ht="43.95" hidden="1" spans="1:14">
       <c r="A84" s="14">
         <v>5</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" ht="29.4" hidden="1" spans="1:14">
+    <row r="85" ht="29.55" hidden="1" spans="1:14">
       <c r="A85" s="9">
         <v>6</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" ht="43.75" hidden="1" spans="1:14">
+    <row r="86" ht="43.95" hidden="1" spans="1:14">
       <c r="A86" s="9">
         <v>6</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" ht="43.75" hidden="1" spans="1:14">
+    <row r="87" ht="43.95" hidden="1" spans="1:14">
       <c r="A87" s="12">
         <v>6</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" ht="72.4" hidden="1" spans="1:14">
+    <row r="88" ht="72.75" hidden="1" spans="1:14">
       <c r="A88" s="9">
         <v>6</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" ht="29.4" hidden="1" spans="1:14">
+    <row r="89" ht="29.55" hidden="1" spans="1:14">
       <c r="A89" s="9">
         <v>6</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" ht="15.05" spans="1:14">
+    <row r="90" ht="15.15" hidden="1" spans="1:14">
       <c r="A90" s="9">
         <v>6</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" ht="28.65" hidden="1" spans="1:14">
+    <row r="91" ht="29.55" hidden="1" spans="1:14">
       <c r="A91" s="9">
         <v>6</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" ht="43.75" hidden="1" spans="1:14">
+    <row r="92" ht="43.95" hidden="1" spans="1:14">
       <c r="A92" s="9">
         <v>6</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" ht="58.1" hidden="1" spans="1:14">
+    <row r="93" ht="58.35" hidden="1" spans="1:14">
       <c r="A93" s="13">
         <v>6</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" ht="43.75" hidden="1" spans="1:14">
+    <row r="94" ht="43.95" hidden="1" spans="1:14">
       <c r="A94" s="9">
         <v>6</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" ht="29.4" hidden="1" spans="1:14">
+    <row r="95" ht="29.55" hidden="1" spans="1:14">
       <c r="A95" s="13">
         <v>6</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" ht="29.4" hidden="1" spans="1:14">
+    <row r="96" ht="29.55" hidden="1" spans="1:14">
       <c r="A96" s="13">
         <v>6</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" ht="43.75" hidden="1" spans="1:14">
+    <row r="97" ht="15.15" hidden="1" spans="1:14">
       <c r="A97" s="13">
         <v>6</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" ht="29.4" hidden="1" spans="1:14">
+    <row r="98" ht="15.15" spans="1:14">
       <c r="A98" s="14">
         <v>6</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>35</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D98" s="14">
         <v>1600</v>
@@ -6834,7 +6835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" ht="43.75" hidden="1" spans="1:14">
+    <row r="99" hidden="1" spans="1:14">
       <c r="A99" s="14">
         <v>6</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" ht="29.4" hidden="1" spans="1:14">
+    <row r="100" ht="15.15" hidden="1" spans="1:14">
       <c r="A100" s="14">
         <v>6</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" ht="58.1" hidden="1" spans="1:14">
+    <row r="101" ht="29.55" hidden="1" spans="1:14">
       <c r="A101" s="14">
         <v>6</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" ht="43.75" hidden="1" spans="1:14">
+    <row r="102" ht="43.95" hidden="1" spans="1:14">
       <c r="A102" s="14">
         <v>6</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" ht="29.4" hidden="1" spans="1:14">
+    <row r="103" ht="29.55" hidden="1" spans="1:14">
       <c r="A103" s="14">
         <v>6</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" ht="43.75" hidden="1" spans="1:14">
+    <row r="104" ht="15.15" hidden="1" spans="1:14">
       <c r="A104" s="14">
         <v>6</v>
       </c>
@@ -7102,12 +7103,17 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N104" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="7天内累计获得评论数（单位：条）"/>
+        <filter val="单日被看播时长"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="live_like_count"/>
+        <filter val="go_live_duration"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="daily"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -7127,9 +7133,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.05" spans="1:12">
+    <row r="1" ht="15.15" spans="1:12">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>49</v>
@@ -7203,7 +7209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" ht="15.05" spans="1:12">
+    <row r="3" ht="15.15" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -7239,7 +7245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="15.05" spans="1:12">
+    <row r="4" ht="15.15" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -7275,7 +7281,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" ht="15.05" spans="1:12">
+    <row r="5" ht="15.15" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -7311,7 +7317,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" ht="15.05" spans="1:12">
+    <row r="6" ht="15.15" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -7347,7 +7353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" ht="15.05" spans="1:12">
+    <row r="7" ht="15.15" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -7421,7 +7427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="15.05" spans="1:12">
+    <row r="9" ht="15.15" spans="1:12">
       <c r="A9" s="6"/>
       <c r="B9" s="4">
         <v>2</v>
@@ -7457,7 +7463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15.05" spans="1:12">
+    <row r="10" ht="15.15" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" s="4">
         <v>3</v>
@@ -7493,7 +7499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.05" spans="1:12">
+    <row r="11" ht="15.15" spans="1:12">
       <c r="A11" s="6"/>
       <c r="B11" s="4">
         <v>4</v>
@@ -7529,7 +7535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="15.05" spans="1:12">
+    <row r="12" ht="15.15" spans="1:12">
       <c r="A12" s="6"/>
       <c r="B12" s="4">
         <v>5</v>
@@ -7565,7 +7571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="15.05" spans="1:12">
+    <row r="13" ht="15.15" spans="1:12">
       <c r="A13" s="6"/>
       <c r="B13" s="4">
         <v>6</v>
@@ -7601,7 +7607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="15.05" spans="1:12">
+    <row r="14" ht="15.15" spans="1:12">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>62</v>
@@ -7657,9 +7663,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="15.05" spans="1:2">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" ht="15.05" spans="1:2">
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="15.05" spans="1:2">
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="15.05" spans="1:2">
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" ht="15.05" spans="1:2">
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -7699,7 +7705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="15.05" spans="1:2">
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
